--- a/BunpoN1.xlsx
+++ b/BunpoN1.xlsx
@@ -1,21 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10309"/>
-  <workbookPr defaultThemeVersion="166925"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/macpro/Git-work-space/BunpoN1_data/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\BunpoN1_data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{403DA07C-8F28-9043-B92A-F6141FE33361}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" xr2:uid="{2895051E-B8B0-3F46-9F05-1F10FC9917BD}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="152511"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -25,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="141" uniqueCount="140">
   <si>
     <t>番号</t>
   </si>
@@ -189,12 +188,500 @@
   <si>
     <t>ユニット</t>
   </si>
+  <si>
+    <t>～が早いか</t>
+  </si>
+  <si>
+    <t>～や・～や否や</t>
+  </si>
+  <si>
+    <t>～なり</t>
+  </si>
+  <si>
+    <t>～そばから</t>
+  </si>
+  <si>
+    <t>～手からというもの（は）</t>
+  </si>
+  <si>
+    <t>～にあって</t>
+  </si>
+  <si>
+    <t>～を皮切りに（して）・～を皮切りとして</t>
+  </si>
+  <si>
+    <t>～に至るまで</t>
+  </si>
+  <si>
+    <t>～を限りに</t>
+  </si>
+  <si>
+    <t>～をもって</t>
+  </si>
+  <si>
+    <t>～といったところだ</t>
+  </si>
+  <si>
+    <t>～をおいて</t>
+  </si>
+  <si>
+    <t>～ならでは</t>
+  </si>
+  <si>
+    <t>～にとどまらず</t>
+  </si>
+  <si>
+    <t>～はおろか</t>
+  </si>
+  <si>
+    <t>～もさることながら</t>
+  </si>
+  <si>
+    <t>～なり～なり</t>
+  </si>
+  <si>
+    <t>あまり多くない数字や少ないことを表わす言葉につく</t>
+  </si>
+  <si>
+    <t>瞬間的なことを表わす動詞につく。後には、少し意外感がある事実を表わす文が来る。話者の希望・意向を表わす文や働きかけの文が来ない。</t>
+  </si>
+  <si>
+    <t>瞬間的なことを表わす動詞につく。後には事実を表わす文が来る。話者の希望・意向を表わす文や働きかけの文が来ない。</t>
+  </si>
+  <si>
+    <t>後には少し意外感がある意志的な動作を表わす文が来る。主語は三人称で、前後の主語はおなじ。</t>
+  </si>
+  <si>
+    <t>よくないことに使うことが多い。</t>
+  </si>
+  <si>
+    <t>あまり近い過去からの期間には使わない。後には、変化後の状態が継続していることを表わす文が来る。</t>
+  </si>
+  <si>
+    <t>状況・時期・場所などを表わす名詞をつく。後には、ある状態でないと起こらないようなことを言う文、またはある状態に反することを言う文が来る。その場合「～にあっても」という形にあることもある。</t>
+  </si>
+  <si>
+    <t>後には同じような行動や出来事が次々に起こり、発展していくという意味の文が来る。一続きであることがはっきりしている場合に使う。自然現象やよくないことにはあまり使わない。</t>
+  </si>
+  <si>
+    <t>普通からあまり取り上げられない意外なことを表わす言葉につき、範囲が広く及んでいることを強調する。範囲の広さを表わすため、まず取り上げられそうな例を「～はもちろん」で示したり、まったく別の種類の例を「～から」で示したりすることも多い。</t>
+  </si>
+  <si>
+    <t>時を表わす言葉（今日・今回・本年度など）につくことが多い</t>
+  </si>
+  <si>
+    <t>時・期日を表わす言葉につく。公式的な硬い言い方で、日常のことには使わない。</t>
+  </si>
+  <si>
+    <t>程度は最高でも～で、あまり高くない。</t>
+  </si>
+  <si>
+    <t>話者が高く評価しているものを表わす言葉につく。後には、「いない・～ない」という言葉が来る</t>
+  </si>
+  <si>
+    <t>話者が高く評価しているものを表わす言葉につく。「～でなければ実現できない」と言いたいときに使う。普通、「～ならではの…だ・～ならではだ」という形で使う。</t>
+  </si>
+  <si>
+    <t>限られた範囲やある現象を表わす言葉につく。後には、それを含むより広い範囲を表わす文が来る。</t>
+  </si>
+  <si>
+    <t>「～」を当然のこととして取り上げ、それよりも程度が上の場合の状態を強調する。全体としてマイナスイメージの文になりやすい。後の文には程度が上であることを強調する言葉（も・紗枝・まで等）が使われることが多い。</t>
+  </si>
+  <si>
+    <t>後には、「～」よりも強調したいことを表わす文が来る。</t>
+  </si>
+  <si>
+    <t>①.彼はコーヒーを一口飲むなり、吐き出してしまった。
+②.課長は部屋に入ってくるなり、大声でどなった。
+③.田中さんは携帯電話を切るなり、私を呼びつけた。</t>
+  </si>
+  <si>
+    <t>①.毎日返事を書くそばから次々に新しいメールが来る。
+②.このテキストは漢字が多くて大変だ。調べたそばから新しい漢字が出てくる。
+③.月末になると、払ったそばからまた別の請求書が来る。</t>
+  </si>
+  <si>
+    <t>①.娘が大学に入り、家を出て行ってからというもの、家の中が寂しくなった。
+②.子供が生まれてからというものは、子供のおもちゃばかり見て歩いています。
+③.日本に来てからというもの、国の家族のことを思わない日がない。</t>
+  </si>
+  <si>
+    <t>①.ラクダは乾燥地にあって、こぶに栄養を蓄えることによって生き延びているのである。
+②.明治時代の初め、日本はまさに発展途上期にあって、みないきいきとしていた。
+③.最近の不況下にあっても、この会社の製品は売れ行きが落ちていない。</t>
+  </si>
+  <si>
+    <t>①.この作家は自分の父親のことを書いた小説を皮切りに、次々に話題作を発表している。
+②.私たちのバンドは来月③日の東京公演を皮切りにして、全国ツアーを予定しています。
+③.K銀行とM銀行の合併を皮切りとして、この数年企業の合併・統合が相次いで行われている。</t>
+  </si>
+  <si>
+    <t>①.私の学校は服装が厳しい。制服の着方はもちろん、ヘアスタイルやスカートの長さに至るまで注意される。
+②.今度の旅行のスケジュール表は綿密だ。起床時間から飛行機内の食事開始時間に至るまで書いてある。
+③.父の趣味は料理です。食材も自家製でないと気が済まないらしく、みそ、とうふに至るまで自分で作ります。</t>
+  </si>
+  <si>
+    <t>①.本年度を限りにこの講座の受講生募集を行わないことになりました。
+②.今日を限りにタバコを止めるぞ!
+③.これを限りにお前とは親子の縁を切る。以降親でもなく、子でもない。</t>
+  </si>
+  <si>
+    <t>①.これをもって第③5回卒業証書授与式を終わります。
+②.②月②0日をもって願書受け付けを締め切ります。遅れないように出してください。
+③.当店は9月末日をもちまして閉店させていただきました。長い間のご利用ありがとうございました。</t>
+  </si>
+  <si>
+    <t>①.当地は夏もそれほど歩くありません。最高に暑い日でも②6，7度といったところです。
+②.この山歩き会では毎月山歩きを行っていますが、参加者は毎回せいぜい6，7といったところです。
+③.休みがあってもほとんど遠出はしません。せいぜい一泊温泉に行くといったところでしょうか。</t>
+  </si>
+  <si>
+    <t>①.今、こんな素晴らしい色使いの染色ができる人、彼をおいてほかにいない。
+②.日本で世界的な平和会議を行うなら、広島か長崎をおいてほかに候補地は考えられない。
+③.毎年夏にはこのホテルに来ている。心からくつろげる場所はここをおいてほかにない。</t>
+  </si>
+  <si>
+    <t>①.マスメディアによる情報というものは、今や一国にとどまらず、世界中に伝わる。
+②.農作物は、台風に襲われた直後にとどまらず、一年中その影響を受ける。
+③.一人の人間の明るさは、場を明るくするにとどまらず、周囲の人々に心身の活力をも与える。</t>
+  </si>
+  <si>
+    <t>①.手間がかかる料理はおろか、日常の簡単な料理を作るのさえ面倒だ。
+②.小売店を取り巻く状況は厳しい。町の専門店はおろか、有名デパートの閉店も相次いでいる。
+③.私は花粉症がひどくて、外ではおろか、家の中でさえマスクが外せない。</t>
+  </si>
+  <si>
+    <t>①.この作家が書くものは鋭い感性もさることながら、注意深く選ばれた語彙と分の転び方が素晴らしい。
+②.彼は人柄もさることながら、その頭の動きの良さで周囲の人をぐいぐい引っ張ていく。
+③.若者の政治的無関心もさることながら、社会全体に政治に対する無力感が広がっているような気がする。</t>
+  </si>
+  <si>
+    <t>①.海外旅行に出発の日、山田さんが空港に着くが早いか、コンビニに駆け込んだ。
+②.うちに子はいつも学校から帰ってきて、カバンを放り出すが早いか、遊びに行ってしまう。
+③.今朝、寝坊した夫は、朝ご飯を口に押し込むが早いか、玄関を出ていった。
+④.話題のその本は、店頭に並べられたが早いか、飛ぶように売れていった。</t>
+  </si>
+  <si>
+    <t>①.私はその人を一目見るや、③0年前に別れた恋人だと気がついた。
+②.子供たちは唐揚げが大好物で、食卓に出すや、あっという間になくなってしまう。
+③.選挙戦が始まるや否や、あちこちからにぎやかな声が聞こえてきた。
+④.この病気の新しい治療法が発表されるや否や、全国の病院から問い合わせが殺到した。</t>
+  </si>
+  <si>
+    <t>①.さすが歌舞伎俳優の一之助さんならではの演技だ。ほれぼれするほどリアリティーがある。
+②.ぜひ一度ヨットに乗ってみてはいかがですか。この体験はハワイならではですよ。
+③.この布製の袋にはぬくもりが感じられる。手作りならではだと思う。
+④.①00年続いた老舗ならでは出せないこの味の良さ！店主が変わっても全く味が落ちていない。</t>
+  </si>
+  <si>
+    <t>①.昼休みは④0分しかいないだから、おにぎりなりサンドイッチなり何か買って早く食べたほうがいい。
+②.</t>
+  </si>
+  <si>
+    <t>【動】辞書形＋なり</t>
+  </si>
+  <si>
+    <t>【動】辞書形／た形＋そばから</t>
+  </si>
+  <si>
+    <t>【動】て形＋からというもの（は）</t>
+  </si>
+  <si>
+    <t>【名】＋にあって</t>
+  </si>
+  <si>
+    <t>【名】＋～を皮切りに（して）・～を皮切りとして</t>
+  </si>
+  <si>
+    <t>【名】＋に至るまで</t>
+  </si>
+  <si>
+    <t>【名】＋を限りに</t>
+  </si>
+  <si>
+    <t>【名】＋をもって</t>
+  </si>
+  <si>
+    <t>【名】＋といったところだ</t>
+  </si>
+  <si>
+    <t>【名】＋をおいて</t>
+  </si>
+  <si>
+    <t>【名】＋ならでは</t>
+  </si>
+  <si>
+    <t>【名】・【動】辞書形＋にとどまらず</t>
+  </si>
+  <si>
+    <t>【名】(＋助詞)＋はおろか</t>
+  </si>
+  <si>
+    <t>【名】＋もさることながら</t>
+  </si>
+  <si>
+    <t>【名】(＋助詞)・【動】辞書形＋なり</t>
+  </si>
+  <si>
+    <t>【動】辞書形／た形＋が早いか</t>
+  </si>
+  <si>
+    <t>【動】辞書形＋や・や否や</t>
+  </si>
+  <si>
+    <t>⇨～とほとんど同時に次のことが起こる。</t>
+  </si>
+  <si>
+    <t>⇨～という動作にすぐ連続して次のことをする。</t>
+  </si>
+  <si>
+    <t>⇨～をひても、すぐにそれに対抗するような動きがあり、それを何度も繰り返す。</t>
+  </si>
+  <si>
+    <t>⇨～してからある変化が起こり、その後ずっと同じ状態が続いている。</t>
+  </si>
+  <si>
+    <t>⇨～このような特別な状態だからこそあることが起こる・⇨～のような特別な状態でもあることが起こる。</t>
+  </si>
+  <si>
+    <t>⇨～から始まって次々に何かをする</t>
+  </si>
+  <si>
+    <t>⇨～という意外なことにまで、ある事の範囲が及ぶ</t>
+  </si>
+  <si>
+    <t>⇨～の時までで、それまで続いていたことを終わりにする、と宣言する</t>
+  </si>
+  <si>
+    <t>⇨～の時までで、ある行事やそれまで続いていたことを終わりにする、と宣言する。</t>
+  </si>
+  <si>
+    <t>⇨～のほかに、同じぐらい高く評価できるものはいない・ない</t>
+  </si>
+  <si>
+    <t>⇨～だけがそのようなすばらしいことをじつげんできる</t>
+  </si>
+  <si>
+    <t>⇨～に範囲に収まらないで、もっと広く及ぶ</t>
+  </si>
+  <si>
+    <t>⇨～はもちろん、程度が違うほかのことにも同じことが言える。</t>
+  </si>
+  <si>
+    <t>⇨～もそうだが、それに追加して、もっと強調したいことがある。</t>
+  </si>
+  <si>
+    <t>⇨～するとすぐ続いて次のことが起こる。</t>
+  </si>
+  <si>
+    <t>⇨～でもいいし･･･でもいいから、何かをする。</t>
+  </si>
+  <si>
+    <t>～がてら</t>
+  </si>
+  <si>
+    <t>⇨～のついでに、その機会を利用してあることをする</t>
+  </si>
+  <si>
+    <r>
+      <t>【名】</t>
+    </r>
+    <r>
+      <rPr>
+        <strike/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="明朝"/>
+        <charset val="128"/>
+      </rPr>
+      <t>する</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="明朝"/>
+      </rPr>
+      <t>・【動】</t>
+    </r>
+    <r>
+      <rPr>
+        <strike/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="明朝"/>
+        <charset val="128"/>
+      </rPr>
+      <t>ます</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="明朝"/>
+        <charset val="128"/>
+      </rPr>
+      <t>　＋がてら</t>
+    </r>
+  </si>
+  <si>
+    <t>①散歩がてら、ちょっとパンを買いに行ってきます。
+②花火の見物がてら一度うちへもおいでください。
+③友達を駅まで送りがてらDVDを返してきた。</t>
+  </si>
+  <si>
+    <t>主に移動を含む動作を表わす名詞（散歩・買い物など）につく。</t>
+  </si>
+  <si>
+    <t>～かたがた</t>
+  </si>
+  <si>
+    <t>⇨～という別の目的も持って、あることをする。</t>
+  </si>
+  <si>
+    <r>
+      <t>【名】</t>
+    </r>
+    <r>
+      <rPr>
+        <strike/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="明朝"/>
+        <charset val="128"/>
+      </rPr>
+      <t>する</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="明朝"/>
+      </rPr>
+      <t>　＋かたがた</t>
+    </r>
+  </si>
+  <si>
+    <t>①部長のお宅へお礼かたがたご挨拶に行こうと持っています。
+②ご報告かたがた一度伺いたいのですが･･････。
+③見学かたがた祖父が入所している老人ホームを訪ねた。</t>
+  </si>
+  <si>
+    <t>後には、移動に関係のある動詞（行く・訪ねるなど）がよくつかわれる。</t>
+  </si>
+  <si>
+    <t>～かたわら</t>
+  </si>
+  <si>
+    <t>⇨～という本業をしながら、別の活動もしている。</t>
+  </si>
+  <si>
+    <r>
+      <t>【名】</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="明朝"/>
+        <charset val="128"/>
+      </rPr>
+      <t>－の</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="明朝"/>
+      </rPr>
+      <t>・【動】</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="明朝"/>
+        <charset val="128"/>
+      </rPr>
+      <t>辞書形　＋かたわら</t>
+    </r>
+  </si>
+  <si>
+    <t>①彼は教師の仕事をするかたわら小説を書いている。
+②私は会社勤務のかたわら子供たちにサッカーを教えています。
+③母は主婦としての仕事のかたわら日本語を教えるボランティアをしている。</t>
+  </si>
+  <si>
+    <t>本業となる仕事を表わす言葉につく。後には本業とは別の社会的活動を表わす文が来る。</t>
+  </si>
+  <si>
+    <t>～ところを</t>
+  </si>
+  <si>
+    <t>⇨～の時なのに・という事情があるのに、迷惑をかけて恐縮だ。（硬い言い方）</t>
+  </si>
+  <si>
+    <r>
+      <t>普通形（【ナ形】</t>
+    </r>
+    <r>
+      <rPr>
+        <strike/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="明朝"/>
+        <charset val="128"/>
+      </rPr>
+      <t>だ</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="明朝"/>
+        <charset val="128"/>
+      </rPr>
+      <t>ーな・【名】</t>
+    </r>
+    <r>
+      <rPr>
+        <strike/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="明朝"/>
+        <charset val="128"/>
+      </rPr>
+      <t>だ</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="明朝"/>
+        <charset val="128"/>
+      </rPr>
+      <t>ーの</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="明朝"/>
+      </rPr>
+      <t>）　＋ところ</t>
+    </r>
+  </si>
+  <si>
+    <t>①すぐにご報告しなければいけないところを遅くなってしまって申し訳ありません。
+②お急ぎのところをすみません。ちょっとうかがってもよろしいでしょうか。
+③こちらからお願いに伺うべきところを先方からおいでいただき、恐縮した。</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="5">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -213,13 +700,32 @@
       <color theme="1"/>
       <name val="明朝"/>
     </font>
+    <font>
+      <strike/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="明朝"/>
+      <charset val="128"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="明朝"/>
+      <charset val="128"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="2">
@@ -249,9 +755,8 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
@@ -262,6 +767,10 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -575,529 +1084,747 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{413580EF-1B3D-3941-8026-1373DCEA1693}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:G39"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <pane xSplit="3" ySplit="2" topLeftCell="F24" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight" activeCell="D1" sqref="D1"/>
+      <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
+      <selection pane="bottomRight" activeCell="F27" sqref="F27"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
+  <sheetFormatPr defaultColWidth="10.875" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="2" width="10.83203125" style="2"/>
-    <col min="3" max="3" width="25.6640625" style="2" customWidth="1"/>
-    <col min="4" max="4" width="30.6640625" style="2" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="47.83203125" style="2" customWidth="1"/>
-    <col min="6" max="6" width="54.6640625" style="2" customWidth="1"/>
-    <col min="7" max="7" width="57" style="2" customWidth="1"/>
-    <col min="8" max="16384" width="10.83203125" style="2"/>
+    <col min="1" max="2" width="10.875" style="1"/>
+    <col min="3" max="3" width="25.625" style="1" customWidth="1"/>
+    <col min="4" max="4" width="44.625" style="1" customWidth="1"/>
+    <col min="5" max="5" width="47.875" style="1" customWidth="1"/>
+    <col min="6" max="6" width="76.125" style="1" customWidth="1"/>
+    <col min="7" max="7" width="57" style="1" customWidth="1"/>
+    <col min="8" max="16384" width="10.875" style="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="1:7">
-      <c r="A2" s="1" t="s">
+      <c r="A2" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="B2" s="6" t="s">
         <v>36</v>
       </c>
-      <c r="C2" s="1" t="s">
+      <c r="C2" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="D2" s="1" t="s">
+      <c r="D2" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="E2" s="1" t="s">
+      <c r="E2" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="F2" s="1" t="s">
+      <c r="F2" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="G2" s="1" t="s">
+      <c r="G2" s="6" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="1:7" ht="118" customHeight="1">
-      <c r="A3" s="3">
+    <row r="3" spans="1:7" ht="60">
+      <c r="A3" s="2">
         <v>1</v>
       </c>
-      <c r="B3" s="3">
+      <c r="B3" s="2">
         <v>6</v>
       </c>
-      <c r="C3" s="3" t="s">
+      <c r="C3" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="D3" s="3" t="s">
+      <c r="D3" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="E3" s="3" t="s">
+      <c r="E3" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="F3" s="4" t="s">
+      <c r="F3" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="G3" s="3" t="s">
+      <c r="G3" s="2" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="4" spans="1:7" ht="102">
-      <c r="A4" s="5">
+    <row r="4" spans="1:7" ht="75">
+      <c r="A4" s="2">
         <v>2</v>
       </c>
-      <c r="B4" s="3">
+      <c r="B4" s="2">
         <v>6</v>
       </c>
-      <c r="C4" s="3" t="s">
+      <c r="C4" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="D4" s="3" t="s">
+      <c r="D4" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="E4" s="3" t="s">
+      <c r="E4" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="F4" s="4" t="s">
+      <c r="F4" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="G4" s="3" t="s">
+      <c r="G4" s="2" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="5" spans="1:7" ht="102">
-      <c r="A5" s="5">
+    <row r="5" spans="1:7" ht="45">
+      <c r="A5" s="2">
         <v>3</v>
       </c>
-      <c r="B5" s="3">
+      <c r="B5" s="2">
         <v>6</v>
       </c>
-      <c r="C5" s="3" t="s">
+      <c r="C5" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="D5" s="3" t="s">
+      <c r="D5" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="E5" s="3" t="s">
+      <c r="E5" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="F5" s="4" t="s">
+      <c r="F5" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="G5" s="3" t="s">
+      <c r="G5" s="2" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="6" spans="1:7" ht="102">
-      <c r="A6" s="5">
+    <row r="6" spans="1:7" ht="45">
+      <c r="A6" s="2">
         <v>4</v>
       </c>
-      <c r="B6" s="3">
+      <c r="B6" s="2">
         <v>6</v>
       </c>
-      <c r="C6" s="3" t="s">
+      <c r="C6" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="D6" s="3" t="s">
+      <c r="D6" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="E6" s="3" t="s">
+      <c r="E6" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="F6" s="4" t="s">
+      <c r="F6" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="G6" s="3" t="s">
+      <c r="G6" s="2" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="7" spans="1:7" ht="85">
-      <c r="A7" s="5">
+    <row r="7" spans="1:7" ht="75">
+      <c r="A7" s="2">
         <v>5</v>
       </c>
-      <c r="B7" s="3">
+      <c r="B7" s="2">
         <v>6</v>
       </c>
-      <c r="C7" s="3" t="s">
+      <c r="C7" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="D7" s="3" t="s">
+      <c r="D7" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="E7" s="3" t="s">
+      <c r="E7" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="F7" s="4" t="s">
+      <c r="F7" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="G7" s="3" t="s">
+      <c r="G7" s="2" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="8" spans="1:7" ht="85">
-      <c r="A8" s="5">
+    <row r="8" spans="1:7" ht="60">
+      <c r="A8" s="2">
         <v>6</v>
       </c>
-      <c r="B8" s="3">
+      <c r="B8" s="2">
         <v>6</v>
       </c>
-      <c r="C8" s="3" t="s">
+      <c r="C8" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="D8" s="3" t="s">
+      <c r="D8" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="E8" s="3" t="s">
+      <c r="E8" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="F8" s="4" t="s">
+      <c r="F8" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="G8" s="3" t="s">
+      <c r="G8" s="2" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="9" spans="1:7">
-      <c r="A9" s="5">
+    <row r="9" spans="1:7" ht="90">
+      <c r="A9" s="2">
         <v>7</v>
       </c>
-      <c r="B9" s="5"/>
-      <c r="C9" s="3"/>
-      <c r="D9" s="3"/>
-      <c r="E9" s="3"/>
-      <c r="F9" s="4"/>
-      <c r="G9" s="3"/>
-    </row>
-    <row r="10" spans="1:7">
-      <c r="A10" s="5">
+      <c r="B9" s="4"/>
+      <c r="C9" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="D9" s="2" t="s">
+        <v>119</v>
+      </c>
+      <c r="E9" s="5" t="s">
+        <v>103</v>
+      </c>
+      <c r="F9" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="G9" s="2" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" ht="90">
+      <c r="A10" s="2">
         <v>8</v>
       </c>
-      <c r="B10" s="5"/>
-      <c r="C10" s="3"/>
-      <c r="D10" s="3"/>
-      <c r="E10" s="3"/>
-      <c r="F10" s="4"/>
-      <c r="G10" s="3"/>
-    </row>
-    <row r="11" spans="1:7">
-      <c r="A11" s="5">
+      <c r="B10" s="4"/>
+      <c r="C10" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="D10" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="E10" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="F10" s="3" t="s">
+        <v>85</v>
+      </c>
+      <c r="G10" s="2" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" ht="45">
+      <c r="A11" s="2">
         <v>9</v>
       </c>
-      <c r="B11" s="5"/>
-      <c r="C11" s="3"/>
-      <c r="D11" s="3"/>
-      <c r="E11" s="3"/>
-      <c r="F11" s="4"/>
-      <c r="G11" s="3"/>
-    </row>
-    <row r="12" spans="1:7">
-      <c r="A12" s="5">
+      <c r="B11" s="4"/>
+      <c r="C11" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="D11" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="E11" s="5" t="s">
+        <v>88</v>
+      </c>
+      <c r="F11" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="G11" s="2" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" ht="45">
+      <c r="A12" s="2">
         <v>10</v>
       </c>
-      <c r="B12" s="5"/>
-      <c r="C12" s="3"/>
-      <c r="D12" s="3"/>
-      <c r="E12" s="3"/>
-      <c r="F12" s="4"/>
-      <c r="G12" s="3"/>
-    </row>
-    <row r="13" spans="1:7">
-      <c r="A13" s="5">
+      <c r="B12" s="4"/>
+      <c r="C12" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="D12" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="E12" s="5" t="s">
+        <v>89</v>
+      </c>
+      <c r="F12" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="G12" s="2" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" ht="45">
+      <c r="A13" s="2">
         <v>11</v>
       </c>
-      <c r="B13" s="5"/>
-      <c r="C13" s="3"/>
-      <c r="D13" s="3"/>
-      <c r="E13" s="3"/>
-      <c r="F13" s="4"/>
-      <c r="G13" s="3"/>
-    </row>
-    <row r="14" spans="1:7">
-      <c r="A14" s="5">
+      <c r="B13" s="4"/>
+      <c r="C13" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="D13" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="E13" s="5" t="s">
+        <v>90</v>
+      </c>
+      <c r="F13" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="G13" s="2" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" ht="75">
+      <c r="A14" s="2">
         <v>12</v>
       </c>
-      <c r="B14" s="5"/>
-      <c r="C14" s="3"/>
-      <c r="D14" s="3"/>
-      <c r="E14" s="3"/>
-      <c r="F14" s="4"/>
-      <c r="G14" s="3"/>
-    </row>
-    <row r="15" spans="1:7">
-      <c r="A15" s="5">
+      <c r="B14" s="4"/>
+      <c r="C14" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="D14" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="E14" s="5" t="s">
+        <v>91</v>
+      </c>
+      <c r="F14" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="G14" s="2" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" ht="90">
+      <c r="A15" s="2">
         <v>13</v>
       </c>
-      <c r="B15" s="5"/>
-      <c r="C15" s="3"/>
-      <c r="D15" s="3"/>
-      <c r="E15" s="3"/>
-      <c r="F15" s="4"/>
-      <c r="G15" s="3"/>
-    </row>
-    <row r="16" spans="1:7">
-      <c r="A16" s="5">
+      <c r="B15" s="4"/>
+      <c r="C15" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="D15" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="E15" s="5" t="s">
+        <v>92</v>
+      </c>
+      <c r="F15" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="G15" s="2" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" ht="90">
+      <c r="A16" s="2">
         <v>14</v>
       </c>
-      <c r="B16" s="5"/>
-      <c r="C16" s="3"/>
-      <c r="D16" s="3"/>
-      <c r="E16" s="3"/>
-      <c r="F16" s="4"/>
-      <c r="G16" s="3"/>
-    </row>
-    <row r="17" spans="1:7">
-      <c r="A17" s="5">
+      <c r="B16" s="4"/>
+      <c r="C16" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="D16" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="E16" s="5" t="s">
+        <v>93</v>
+      </c>
+      <c r="F16" s="3" t="s">
+        <v>76</v>
+      </c>
+      <c r="G16" s="2" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" ht="45">
+      <c r="A17" s="2">
         <v>15</v>
       </c>
-      <c r="B17" s="5"/>
-      <c r="C17" s="3"/>
-      <c r="D17" s="3"/>
-      <c r="E17" s="3"/>
-      <c r="F17" s="4"/>
-      <c r="G17" s="3"/>
-    </row>
-    <row r="18" spans="1:7">
-      <c r="A18" s="5">
+      <c r="B17" s="4"/>
+      <c r="C17" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="D17" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="E17" s="5" t="s">
+        <v>94</v>
+      </c>
+      <c r="F17" s="3" t="s">
+        <v>77</v>
+      </c>
+      <c r="G17" s="2" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" ht="75">
+      <c r="A18" s="2">
         <v>16</v>
       </c>
-      <c r="B18" s="5"/>
-      <c r="C18" s="3"/>
-      <c r="D18" s="3"/>
-      <c r="E18" s="3"/>
-      <c r="F18" s="4"/>
-      <c r="G18" s="3"/>
-    </row>
-    <row r="19" spans="1:7">
-      <c r="A19" s="5">
+      <c r="B18" s="4"/>
+      <c r="C18" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="D18" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="E18" s="5" t="s">
+        <v>95</v>
+      </c>
+      <c r="F18" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="G18" s="2" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" ht="90">
+      <c r="A19" s="2">
         <v>17</v>
       </c>
-      <c r="B19" s="5"/>
-      <c r="C19" s="3"/>
-      <c r="D19" s="3"/>
-      <c r="E19" s="3"/>
-      <c r="F19" s="4"/>
-      <c r="G19" s="3"/>
-    </row>
-    <row r="20" spans="1:7">
-      <c r="A20" s="5">
+      <c r="B19" s="4"/>
+      <c r="C19" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="D19" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="E19" s="5" t="s">
+        <v>96</v>
+      </c>
+      <c r="F19" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="G19" s="2" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" ht="75">
+      <c r="A20" s="2">
         <v>18</v>
       </c>
-      <c r="B20" s="5"/>
-      <c r="C20" s="3"/>
-      <c r="D20" s="3"/>
-      <c r="E20" s="3"/>
-      <c r="F20" s="4"/>
-      <c r="G20" s="3"/>
-    </row>
-    <row r="21" spans="1:7">
-      <c r="A21" s="5">
+      <c r="B20" s="4"/>
+      <c r="C20" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="D20" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="E20" s="5" t="s">
+        <v>97</v>
+      </c>
+      <c r="F20" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="G20" s="2" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" ht="105">
+      <c r="A21" s="2">
         <v>19</v>
       </c>
-      <c r="B21" s="5"/>
-      <c r="C21" s="3"/>
-      <c r="D21" s="3"/>
-      <c r="E21" s="3"/>
-      <c r="F21" s="4"/>
-      <c r="G21" s="3"/>
-    </row>
-    <row r="22" spans="1:7">
-      <c r="A22" s="5">
+      <c r="B21" s="4"/>
+      <c r="C21" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="D21" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="E21" s="5" t="s">
+        <v>98</v>
+      </c>
+      <c r="F21" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="G21" s="2" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" ht="75">
+      <c r="A22" s="2">
         <v>20</v>
       </c>
-      <c r="B22" s="5"/>
-      <c r="C22" s="3"/>
-      <c r="D22" s="3"/>
-      <c r="E22" s="3"/>
-      <c r="F22" s="4"/>
-      <c r="G22" s="3"/>
-    </row>
-    <row r="23" spans="1:7">
-      <c r="A23" s="5">
+      <c r="B22" s="4"/>
+      <c r="C22" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="D22" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="E22" s="5" t="s">
+        <v>99</v>
+      </c>
+      <c r="F22" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="G22" s="2" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" ht="60">
+      <c r="A23" s="2">
         <v>21</v>
       </c>
-      <c r="B23" s="5"/>
-      <c r="C23" s="3"/>
-      <c r="D23" s="3"/>
-      <c r="E23" s="3"/>
-      <c r="F23" s="4"/>
-      <c r="G23" s="3"/>
-    </row>
-    <row r="24" spans="1:7">
-      <c r="A24" s="5">
+      <c r="B23" s="4"/>
+      <c r="C23" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="D23" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="E23" s="5" t="s">
+        <v>100</v>
+      </c>
+      <c r="F23" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="G23" s="2" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" ht="90">
+      <c r="A24" s="2">
         <v>22</v>
       </c>
-      <c r="B24" s="5"/>
-      <c r="C24" s="3"/>
-      <c r="D24" s="3"/>
-      <c r="E24" s="3"/>
-      <c r="F24" s="4"/>
-      <c r="G24" s="3"/>
-    </row>
-    <row r="25" spans="1:7">
-      <c r="A25" s="5">
+      <c r="B24" s="4"/>
+      <c r="C24" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="D24" s="2" t="s">
+        <v>118</v>
+      </c>
+      <c r="E24" s="5" t="s">
+        <v>101</v>
+      </c>
+      <c r="F24" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="G24" s="2" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" ht="45">
+      <c r="A25" s="2">
         <v>23</v>
       </c>
-      <c r="B25" s="5"/>
-      <c r="C25" s="3"/>
-      <c r="D25" s="3"/>
-      <c r="E25" s="3"/>
-      <c r="F25" s="4"/>
-      <c r="G25" s="3"/>
-    </row>
-    <row r="26" spans="1:7">
-      <c r="A26" s="5">
+      <c r="B25" s="4"/>
+      <c r="C25" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="D25" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="E25" s="5" t="s">
+        <v>102</v>
+      </c>
+      <c r="F25" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="G25" s="2"/>
+    </row>
+    <row r="26" spans="1:7" ht="45">
+      <c r="A26" s="2">
         <v>24</v>
       </c>
-      <c r="B26" s="5"/>
-      <c r="C26" s="3"/>
-      <c r="D26" s="3"/>
-      <c r="E26" s="3"/>
-      <c r="F26" s="4"/>
-      <c r="G26" s="3"/>
-    </row>
-    <row r="27" spans="1:7">
-      <c r="A27" s="5">
+      <c r="B26" s="4">
+        <v>7</v>
+      </c>
+      <c r="C26" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="D26" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="E26" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="F26" s="3" t="s">
+        <v>124</v>
+      </c>
+      <c r="G26" s="2" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" ht="45">
+      <c r="A27" s="2">
         <v>25</v>
       </c>
-      <c r="B27" s="5"/>
-      <c r="C27" s="3"/>
-      <c r="D27" s="3"/>
-      <c r="E27" s="3"/>
-      <c r="F27" s="4"/>
-      <c r="G27" s="3"/>
-    </row>
-    <row r="28" spans="1:7">
-      <c r="A28" s="5">
+      <c r="B27" s="4">
+        <v>7</v>
+      </c>
+      <c r="C27" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="D27" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="E27" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="F27" s="3" t="s">
+        <v>129</v>
+      </c>
+      <c r="G27" s="2" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" ht="45">
+      <c r="A28" s="2">
         <v>26</v>
       </c>
-      <c r="B28" s="5"/>
-      <c r="C28" s="3"/>
-      <c r="D28" s="3"/>
-      <c r="E28" s="3"/>
-      <c r="F28" s="4"/>
-      <c r="G28" s="3"/>
-    </row>
-    <row r="29" spans="1:7">
-      <c r="A29" s="5">
+      <c r="B28" s="4">
+        <v>7</v>
+      </c>
+      <c r="C28" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="D28" s="2" t="s">
+        <v>132</v>
+      </c>
+      <c r="E28" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="F28" s="3" t="s">
+        <v>134</v>
+      </c>
+      <c r="G28" s="2" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" ht="60">
+      <c r="A29" s="2">
         <v>27</v>
       </c>
-      <c r="B29" s="5"/>
-      <c r="C29" s="3"/>
-      <c r="D29" s="3"/>
-      <c r="E29" s="3"/>
-      <c r="F29" s="4"/>
-      <c r="G29" s="3"/>
+      <c r="B29" s="4">
+        <v>8</v>
+      </c>
+      <c r="C29" s="2" t="s">
+        <v>136</v>
+      </c>
+      <c r="D29" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="E29" s="2" t="s">
+        <v>138</v>
+      </c>
+      <c r="F29" s="3" t="s">
+        <v>139</v>
+      </c>
+      <c r="G29" s="2"/>
     </row>
     <row r="30" spans="1:7">
-      <c r="A30" s="5">
+      <c r="A30" s="2">
         <v>28</v>
       </c>
-      <c r="B30" s="5"/>
-      <c r="C30" s="3"/>
-      <c r="D30" s="3"/>
-      <c r="E30" s="3"/>
-      <c r="F30" s="4"/>
-      <c r="G30" s="3"/>
+      <c r="B30" s="4"/>
+      <c r="C30" s="2"/>
+      <c r="D30" s="2"/>
+      <c r="E30" s="2"/>
+      <c r="F30" s="3"/>
+      <c r="G30" s="2"/>
     </row>
     <row r="31" spans="1:7">
-      <c r="A31" s="5">
+      <c r="A31" s="2">
         <v>29</v>
       </c>
-      <c r="B31" s="5"/>
-      <c r="C31" s="3"/>
-      <c r="D31" s="3"/>
-      <c r="E31" s="3"/>
-      <c r="F31" s="4"/>
-      <c r="G31" s="3"/>
+      <c r="B31" s="4"/>
+      <c r="C31" s="2"/>
+      <c r="D31" s="2"/>
+      <c r="E31" s="2"/>
+      <c r="F31" s="3"/>
+      <c r="G31" s="2"/>
     </row>
     <row r="32" spans="1:7">
-      <c r="A32" s="5">
+      <c r="A32" s="2">
         <v>30</v>
       </c>
-      <c r="B32" s="5"/>
-      <c r="C32" s="3"/>
-      <c r="D32" s="3"/>
-      <c r="E32" s="3"/>
-      <c r="F32" s="4"/>
-      <c r="G32" s="3"/>
+      <c r="B32" s="4"/>
+      <c r="C32" s="2"/>
+      <c r="D32" s="2"/>
+      <c r="E32" s="2"/>
+      <c r="F32" s="3"/>
+      <c r="G32" s="2"/>
     </row>
     <row r="33" spans="1:7">
-      <c r="A33" s="5">
+      <c r="A33" s="2">
         <v>31</v>
       </c>
-      <c r="B33" s="5"/>
-      <c r="C33" s="3"/>
-      <c r="D33" s="3"/>
-      <c r="E33" s="3"/>
-      <c r="F33" s="4"/>
-      <c r="G33" s="3"/>
+      <c r="B33" s="4"/>
+      <c r="C33" s="2"/>
+      <c r="D33" s="2"/>
+      <c r="E33" s="2"/>
+      <c r="F33" s="3"/>
+      <c r="G33" s="2"/>
     </row>
     <row r="34" spans="1:7">
-      <c r="A34" s="5">
+      <c r="A34" s="2">
         <v>32</v>
       </c>
-      <c r="B34" s="5"/>
-      <c r="C34" s="3"/>
-      <c r="D34" s="3"/>
-      <c r="E34" s="3"/>
-      <c r="F34" s="4"/>
-      <c r="G34" s="3"/>
+      <c r="B34" s="4"/>
+      <c r="C34" s="2"/>
+      <c r="D34" s="2"/>
+      <c r="E34" s="2"/>
+      <c r="F34" s="3"/>
+      <c r="G34" s="2"/>
     </row>
     <row r="35" spans="1:7">
-      <c r="A35" s="5">
+      <c r="A35" s="2">
         <v>33</v>
       </c>
-      <c r="B35" s="5"/>
-      <c r="C35" s="3"/>
-      <c r="D35" s="3"/>
-      <c r="E35" s="3"/>
-      <c r="F35" s="4"/>
-      <c r="G35" s="3"/>
+      <c r="B35" s="4"/>
+      <c r="C35" s="2"/>
+      <c r="D35" s="2"/>
+      <c r="E35" s="2"/>
+      <c r="F35" s="3"/>
+      <c r="G35" s="2"/>
     </row>
     <row r="36" spans="1:7">
-      <c r="A36" s="5">
+      <c r="A36" s="2">
         <v>34</v>
       </c>
-      <c r="B36" s="5"/>
-      <c r="C36" s="3"/>
-      <c r="D36" s="3"/>
-      <c r="E36" s="3"/>
-      <c r="F36" s="4"/>
-      <c r="G36" s="3"/>
+      <c r="B36" s="4"/>
+      <c r="C36" s="2"/>
+      <c r="D36" s="2"/>
+      <c r="E36" s="2"/>
+      <c r="F36" s="3"/>
+      <c r="G36" s="2"/>
     </row>
     <row r="37" spans="1:7">
-      <c r="A37" s="5">
+      <c r="A37" s="2">
         <v>35</v>
       </c>
-      <c r="B37" s="5"/>
-      <c r="C37" s="3"/>
-      <c r="D37" s="3"/>
-      <c r="E37" s="3"/>
-      <c r="F37" s="4"/>
-      <c r="G37" s="3"/>
+      <c r="B37" s="4"/>
+      <c r="C37" s="2"/>
+      <c r="D37" s="2"/>
+      <c r="E37" s="2"/>
+      <c r="F37" s="3"/>
+      <c r="G37" s="2"/>
     </row>
     <row r="38" spans="1:7">
-      <c r="A38" s="5">
+      <c r="A38" s="2">
         <v>36</v>
       </c>
-      <c r="B38" s="5"/>
-      <c r="C38" s="3"/>
-      <c r="D38" s="3"/>
-      <c r="E38" s="3"/>
-      <c r="F38" s="4"/>
-      <c r="G38" s="3"/>
-    </row>
-    <row r="39" spans="1:7" ht="17">
-      <c r="A39" s="5">
+      <c r="B38" s="4"/>
+      <c r="C38" s="2"/>
+      <c r="D38" s="2"/>
+      <c r="E38" s="2"/>
+      <c r="F38" s="3"/>
+      <c r="G38" s="2"/>
+    </row>
+    <row r="39" spans="1:7">
+      <c r="A39" s="2">
         <v>37</v>
       </c>
-      <c r="B39" s="5"/>
-      <c r="C39" s="3"/>
-      <c r="D39" s="3"/>
-      <c r="E39" s="3"/>
-      <c r="F39" s="4" t="s">
+      <c r="B39" s="4"/>
+      <c r="C39" s="2"/>
+      <c r="D39" s="2"/>
+      <c r="E39" s="2"/>
+      <c r="F39" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="G39" s="3"/>
+      <c r="G39" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/BunpoN1.xlsx
+++ b/BunpoN1.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="141" uniqueCount="140">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="161" uniqueCount="160">
   <si>
     <t>番号</t>
   </si>
@@ -675,6 +675,97 @@
     <t>①すぐにご報告しなければいけないところを遅くなってしまって申し訳ありません。
 ②お急ぎのところをすみません。ちょっとうかがってもよろしいでしょうか。
 ③こちらからお願いに伺うべきところを先方からおいでいただき、恐縮した。</t>
+  </si>
+  <si>
+    <t>ある継続的な状況を表わす言葉につく。相手に迷惑があることを気遣う儀礼的な言い方で、後には、お詫びや感謝の表現が来ることが多い。③のように「～べきところを」の例もある。</t>
+  </si>
+  <si>
+    <t>～ものを</t>
+  </si>
+  <si>
+    <t>⇨～順当に成立していればよかったのに、実際はそうではなかった。</t>
+  </si>
+  <si>
+    <r>
+      <t>【動・形】普通形（【な形】</t>
+    </r>
+    <r>
+      <rPr>
+        <strike/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="明朝"/>
+        <charset val="128"/>
+      </rPr>
+      <t>だ</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="明朝"/>
+      </rPr>
+      <t>ーな）　＋ものを</t>
+    </r>
+  </si>
+  <si>
+    <t>①安静にしていれば治るものを、田中さんはすぐに働き始めて、また病気を悪化させてしまった。
+②もっと慎重にやれば誤解されないものを、彼の強引なやり方がいつも誤解を招く。
+③よせばいいものを、彼は社長に大声で文句を言った。そのため会社を首になった。
+④一言声をかけてくれれば手伝ったものを。</t>
+  </si>
+  <si>
+    <t>分全体として話者の不満や残念な気持ちを表わす。事実とは異なることを仮定した分につく。後には、事実を説明する分が来る。④のように後の文が省略されることもある。</t>
+  </si>
+  <si>
+    <t>～とはいえ</t>
+  </si>
+  <si>
+    <t>⇨～というのは事実かもしれないが、それでもやはり状況は同じだ。</t>
+  </si>
+  <si>
+    <t>【名】・普通形　＋とはいえ</t>
+  </si>
+  <si>
+    <t>①ダイエット中とはいえ、出されたごちそうに手を付けないなんて失礼だと思う。
+②まだ締め切りまで時間があるとはいえ、早めに完成させておいたほうがいい。
+③12月に入ったとはいえ、まだ年末という気がしない。
+④あの時は仕方がなかったとはいえ、ご迷惑をおかけしました。</t>
+  </si>
+  <si>
+    <t>事実、または話者が事実だと考えていることを表わす文につく。後には、単なる事実ではなく、「～」の持つ意味に反する、話者の評価を表わす文が来る。</t>
+  </si>
+  <si>
+    <t>～といえども</t>
+  </si>
+  <si>
+    <t>⇨～は事実ではあるが・事実であっても・～の立場の人であっても、実際はそこから普通に予想されることと違う。（硬い言い方）</t>
+  </si>
+  <si>
+    <t>【名】・普通形　＋といえども</t>
+  </si>
+  <si>
+    <t>①未成年者といえども、公共の場で勝手なことをしてはならない。
+②いかに困難な状況にあったといえども、罪を犯したことは許されない。
+③人間は自然災害に対して無力だといえども、国を挙げての対策を強化する必要がある。
+④この不況下では、たとえ経営の神様といえども、この会社の立て直しは難しいだろう。
+⑤どんな大富豪といえども、この有名な絵を買うことはできない。</t>
+  </si>
+  <si>
+    <t>①②③のように事実のことにも、④⑤のように仮定のことにもつく。後には、主に義務・覚悟・話者の主張を表わす文が来る。また、「たとえ・いかに・どんな」などの言葉を一緒に使うことも多い。</t>
+  </si>
+  <si>
+    <t>～と思いきや</t>
+  </si>
+  <si>
+    <t>⇨～と思ったが、実際はそうではなかった。</t>
+  </si>
+  <si>
+    <t>普通形　＋と思いきや</t>
+  </si>
+  <si>
+    <t>①試験問題は簡単だったので、満点をとれたと思いきや、名前を書くのを忘れて0点にされてしまった。
+②あの政党は選挙で圧勝したので、長く政権が続くかと思いきや、たちまち支持率が落ち、1年ともたなかった。</t>
   </si>
 </sst>
 </file>
@@ -1088,10 +1179,10 @@
   <dimension ref="A2:G39"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane xSplit="3" ySplit="2" topLeftCell="F24" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="3" ySplit="2" topLeftCell="F30" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="F27" sqref="F27"/>
+      <selection pane="bottomRight" activeCell="F33" sqref="F33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.875" defaultRowHeight="15"/>
@@ -1709,57 +1800,107 @@
       <c r="F29" s="3" t="s">
         <v>139</v>
       </c>
-      <c r="G29" s="2"/>
-    </row>
-    <row r="30" spans="1:7">
+      <c r="G29" s="2" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7" ht="105">
       <c r="A30" s="2">
         <v>28</v>
       </c>
-      <c r="B30" s="4"/>
-      <c r="C30" s="2"/>
-      <c r="D30" s="2"/>
-      <c r="E30" s="2"/>
-      <c r="F30" s="3"/>
-      <c r="G30" s="2"/>
-    </row>
-    <row r="31" spans="1:7">
+      <c r="B30" s="4">
+        <v>8</v>
+      </c>
+      <c r="C30" s="2" t="s">
+        <v>141</v>
+      </c>
+      <c r="D30" s="2" t="s">
+        <v>142</v>
+      </c>
+      <c r="E30" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="F30" s="3" t="s">
+        <v>144</v>
+      </c>
+      <c r="G30" s="2" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7" ht="75">
       <c r="A31" s="2">
         <v>29</v>
       </c>
-      <c r="B31" s="4"/>
-      <c r="C31" s="2"/>
-      <c r="D31" s="2"/>
-      <c r="E31" s="2"/>
-      <c r="F31" s="3"/>
-      <c r="G31" s="2"/>
-    </row>
-    <row r="32" spans="1:7">
+      <c r="B31" s="4">
+        <v>8</v>
+      </c>
+      <c r="C31" s="2" t="s">
+        <v>146</v>
+      </c>
+      <c r="D31" s="2" t="s">
+        <v>147</v>
+      </c>
+      <c r="E31" s="2" t="s">
+        <v>148</v>
+      </c>
+      <c r="F31" s="3" t="s">
+        <v>149</v>
+      </c>
+      <c r="G31" s="2" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7" ht="105">
       <c r="A32" s="2">
         <v>30</v>
       </c>
-      <c r="B32" s="4"/>
-      <c r="C32" s="2"/>
-      <c r="D32" s="2"/>
-      <c r="E32" s="2"/>
-      <c r="F32" s="3"/>
-      <c r="G32" s="2"/>
-    </row>
-    <row r="33" spans="1:7">
+      <c r="B32" s="4">
+        <v>8</v>
+      </c>
+      <c r="C32" s="2" t="s">
+        <v>151</v>
+      </c>
+      <c r="D32" s="2" t="s">
+        <v>152</v>
+      </c>
+      <c r="E32" s="2" t="s">
+        <v>153</v>
+      </c>
+      <c r="F32" s="3" t="s">
+        <v>154</v>
+      </c>
+      <c r="G32" s="2" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7" ht="60">
       <c r="A33" s="2">
         <v>31</v>
       </c>
-      <c r="B33" s="4"/>
-      <c r="C33" s="2"/>
-      <c r="D33" s="2"/>
-      <c r="E33" s="2"/>
-      <c r="F33" s="3"/>
+      <c r="B33" s="4">
+        <v>8</v>
+      </c>
+      <c r="C33" s="2" t="s">
+        <v>156</v>
+      </c>
+      <c r="D33" s="2" t="s">
+        <v>157</v>
+      </c>
+      <c r="E33" s="2" t="s">
+        <v>158</v>
+      </c>
+      <c r="F33" s="3" t="s">
+        <v>159</v>
+      </c>
       <c r="G33" s="2"/>
     </row>
     <row r="34" spans="1:7">
       <c r="A34" s="2">
         <v>32</v>
       </c>
-      <c r="B34" s="4"/>
+      <c r="B34" s="4">
+        <v>8</v>
+      </c>
       <c r="C34" s="2"/>
       <c r="D34" s="2"/>
       <c r="E34" s="2"/>

--- a/BunpoN1.xlsx
+++ b/BunpoN1.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="161" uniqueCount="160">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="187" uniqueCount="186">
   <si>
     <t>番号</t>
   </si>
@@ -621,6 +621,156 @@
     <t>⇨～の時なのに・という事情があるのに、迷惑をかけて恐縮だ。（硬い言い方）</t>
   </si>
   <si>
+    <t>①すぐにご報告しなければいけないところを遅くなってしまって申し訳ありません。
+②お急ぎのところをすみません。ちょっとうかがってもよろしいでしょうか。
+③こちらからお願いに伺うべきところを先方からおいでいただき、恐縮した。</t>
+  </si>
+  <si>
+    <t>ある継続的な状況を表わす言葉につく。相手に迷惑があることを気遣う儀礼的な言い方で、後には、お詫びや感謝の表現が来ることが多い。③のように「～べきところを」の例もある。</t>
+  </si>
+  <si>
+    <t>～ものを</t>
+  </si>
+  <si>
+    <t>⇨～順当に成立していればよかったのに、実際はそうではなかった。</t>
+  </si>
+  <si>
+    <t>①安静にしていれば治るものを、田中さんはすぐに働き始めて、また病気を悪化させてしまった。
+②もっと慎重にやれば誤解されないものを、彼の強引なやり方がいつも誤解を招く。
+③よせばいいものを、彼は社長に大声で文句を言った。そのため会社を首になった。
+④一言声をかけてくれれば手伝ったものを。</t>
+  </si>
+  <si>
+    <t>分全体として話者の不満や残念な気持ちを表わす。事実とは異なることを仮定した分につく。後には、事実を説明する分が来る。④のように後の文が省略されることもある。</t>
+  </si>
+  <si>
+    <t>～とはいえ</t>
+  </si>
+  <si>
+    <t>⇨～というのは事実かもしれないが、それでもやはり状況は同じだ。</t>
+  </si>
+  <si>
+    <t>【名】・普通形　＋とはいえ</t>
+  </si>
+  <si>
+    <t>①ダイエット中とはいえ、出されたごちそうに手を付けないなんて失礼だと思う。
+②まだ締め切りまで時間があるとはいえ、早めに完成させておいたほうがいい。
+③12月に入ったとはいえ、まだ年末という気がしない。
+④あの時は仕方がなかったとはいえ、ご迷惑をおかけしました。</t>
+  </si>
+  <si>
+    <t>事実、または話者が事実だと考えていることを表わす文につく。後には、単なる事実ではなく、「～」の持つ意味に反する、話者の評価を表わす文が来る。</t>
+  </si>
+  <si>
+    <t>～といえども</t>
+  </si>
+  <si>
+    <t>⇨～は事実ではあるが・事実であっても・～の立場の人であっても、実際はそこから普通に予想されることと違う。（硬い言い方）</t>
+  </si>
+  <si>
+    <t>【名】・普通形　＋といえども</t>
+  </si>
+  <si>
+    <t>①未成年者といえども、公共の場で勝手なことをしてはならない。
+②いかに困難な状況にあったといえども、罪を犯したことは許されない。
+③人間は自然災害に対して無力だといえども、国を挙げての対策を強化する必要がある。
+④この不況下では、たとえ経営の神様といえども、この会社の立て直しは難しいだろう。
+⑤どんな大富豪といえども、この有名な絵を買うことはできない。</t>
+  </si>
+  <si>
+    <t>①②③のように事実のことにも、④⑤のように仮定のことにもつく。後には、主に義務・覚悟・話者の主張を表わす文が来る。また、「たとえ・いかに・どんな」などの言葉を一緒に使うことも多い。</t>
+  </si>
+  <si>
+    <t>～と思いきや</t>
+  </si>
+  <si>
+    <t>⇨～と思ったが、実際はそうではなかった。</t>
+  </si>
+  <si>
+    <t>普通形　＋と思いきや</t>
+  </si>
+  <si>
+    <t>①試験問題は簡単だったので、満点をとれたと思いきや、名前を書くのを忘れて0点にされてしまった。
+②あの政党は選挙で圧勝したので、長く政権が続くかと思いきや、たちまち支持率が落ち、1年ともたなかった。
+③やっと道路工事が終わったので、これからは静かになるだろうと思いきや、別の工事が始まった。</t>
+  </si>
+  <si>
+    <t>全文体として予想に反した事実に対する話者の驚き・意外感などを表わす。話者の予想を表わす文につく、②のように「と思いきや」の前に「か」が入る例もある。後には、その予想とは違う結果を表わす文が来る。</t>
+  </si>
+  <si>
+    <t>～とあれば</t>
+  </si>
+  <si>
+    <t>⇨～という特別な条件なら、ある事をする・ある状態だろう。</t>
+  </si>
+  <si>
+    <t>【名】・普通形　＋とあれば</t>
+  </si>
+  <si>
+    <t>後には、主に話者の希望・意向・判断を表わす文が来る。</t>
+  </si>
+  <si>
+    <t>①子供のためとあれば、私はどんなことでも我慢しますよ。
+②小さい島での一人暮らしとあれば、不自由なことも多いだろう。
+③入院のためにお金が必要だとあれば、何とかしてお金を用意しなければならない。</t>
+  </si>
+  <si>
+    <t>～たら最後・～たが最後</t>
+  </si>
+  <si>
+    <t>⇨～たら、必ずひどいことになる。</t>
+  </si>
+  <si>
+    <t>【動】た形　＋ら最後・が最後</t>
+  </si>
+  <si>
+    <t>①兄は大酒飲みだから、飲み始めたら最後、酔いつぶれるまで読んでしまう。
+②うちの娘はパソコンの前に座ったが最後、声をかけても返事もしない。
+③彼にお金を持たせたら最後、何か使われるかわからない。</t>
+  </si>
+  <si>
+    <t>①②のように実際に起こることが分かっている内容につく場合も、③のように仮定した内容につく場合もある。後には、話者が非常に悪いと考えている事態を表わす文が来る。</t>
+  </si>
+  <si>
+    <t>～ようでは</t>
+  </si>
+  <si>
+    <t>⇨～のような良くない状態では、良くない結果になるだろう。</t>
+  </si>
+  <si>
+    <t>普通形（【ナ形】だ－な・【名】だ－の）　＋ところ</t>
+  </si>
+  <si>
+    <t>【動・形】普通形（【な形】だ－な）　＋ものを</t>
+  </si>
+  <si>
+    <t>①小さな失敗をいちいち気にするようでは、この会社ではやっていけないよ。
+②ああ、僕は忘れっぽくて困る。こんなにすぐ忘れるようでは、この先のことが心配だ。
+③報告書にこんなにミスが多いようでは、安心して仕事を任せられない。</t>
+  </si>
+  <si>
+    <t>望ましくない事実を表わす文につく。後には、望ましくないことになるだろうという推測の文が来る。</t>
+  </si>
+  <si>
+    <t>～なしに（は）・～なしでは・～なくして（は）</t>
+  </si>
+  <si>
+    <t>⇨もし～がなかったら、あることが成立しない。</t>
+  </si>
+  <si>
+    <t>【名】・【動】辞書形＋こと　＋なしに（は）・なしでは・なくして（は）</t>
+  </si>
+  <si>
+    <t>①資金を確保することなしにはどんな計画も実行できない。
+②あの頃のことは涙なしに語ることはできない。
+③祖母はもう高齢で、周りの人たちの助けなしでは暮らせない。
+④十分な話し合いなくしてはダム建設の問題は解決しないだろう。
+⑤先生方のご指導なくして私の大学合格はあり得ませんでした。</t>
+  </si>
+  <si>
+    <t>あることの成立のために、「～」が絶対に必要であると話者が評価していることを表わす。話者が絶対に必要だと考えていることを表わす言葉につく。後には、否定表現が来る。</t>
+  </si>
+  <si>
     <r>
       <t>普通形（【ナ形】</t>
     </r>
@@ -641,7 +791,7 @@
         <rFont val="明朝"/>
         <charset val="128"/>
       </rPr>
-      <t>ーな・【名】</t>
+      <t>－な/－である ・ 【名】</t>
     </r>
     <r>
       <rPr>
@@ -660,7 +810,7 @@
         <rFont val="明朝"/>
         <charset val="128"/>
       </rPr>
-      <t>ーの</t>
+      <t>－である</t>
     </r>
     <r>
       <rPr>
@@ -668,104 +818,25 @@
         <color theme="1"/>
         <rFont val="明朝"/>
       </rPr>
-      <t>）　＋ところ</t>
-    </r>
-  </si>
-  <si>
-    <t>①すぐにご報告しなければいけないところを遅くなってしまって申し訳ありません。
-②お急ぎのところをすみません。ちょっとうかがってもよろしいでしょうか。
-③こちらからお願いに伺うべきところを先方からおいでいただき、恐縮した。</t>
-  </si>
-  <si>
-    <t>ある継続的な状況を表わす言葉につく。相手に迷惑があることを気遣う儀礼的な言い方で、後には、お詫びや感謝の表現が来ることが多い。③のように「～べきところを」の例もある。</t>
-  </si>
-  <si>
-    <t>～ものを</t>
-  </si>
-  <si>
-    <t>⇨～順当に成立していればよかったのに、実際はそうではなかった。</t>
-  </si>
-  <si>
-    <r>
-      <t>【動・形】普通形（【な形】</t>
-    </r>
-    <r>
-      <rPr>
-        <strike/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="明朝"/>
-        <charset val="128"/>
-      </rPr>
-      <t>だ</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="明朝"/>
-      </rPr>
-      <t>ーな）　＋ものを</t>
-    </r>
-  </si>
-  <si>
-    <t>①安静にしていれば治るものを、田中さんはすぐに働き始めて、また病気を悪化させてしまった。
-②もっと慎重にやれば誤解されないものを、彼の強引なやり方がいつも誤解を招く。
-③よせばいいものを、彼は社長に大声で文句を言った。そのため会社を首になった。
-④一言声をかけてくれれば手伝ったものを。</t>
-  </si>
-  <si>
-    <t>分全体として話者の不満や残念な気持ちを表わす。事実とは異なることを仮定した分につく。後には、事実を説明する分が来る。④のように後の文が省略されることもある。</t>
-  </si>
-  <si>
-    <t>～とはいえ</t>
-  </si>
-  <si>
-    <t>⇨～というのは事実かもしれないが、それでもやはり状況は同じだ。</t>
-  </si>
-  <si>
-    <t>【名】・普通形　＋とはいえ</t>
-  </si>
-  <si>
-    <t>①ダイエット中とはいえ、出されたごちそうに手を付けないなんて失礼だと思う。
-②まだ締め切りまで時間があるとはいえ、早めに完成させておいたほうがいい。
-③12月に入ったとはいえ、まだ年末という気がしない。
-④あの時は仕方がなかったとはいえ、ご迷惑をおかけしました。</t>
-  </si>
-  <si>
-    <t>事実、または話者が事実だと考えていることを表わす文につく。後には、単なる事実ではなく、「～」の持つ意味に反する、話者の評価を表わす文が来る。</t>
-  </si>
-  <si>
-    <t>～といえども</t>
-  </si>
-  <si>
-    <t>⇨～は事実ではあるが・事実であっても・～の立場の人であっても、実際はそこから普通に予想されることと違う。（硬い言い方）</t>
-  </si>
-  <si>
-    <t>【名】・普通形　＋といえども</t>
-  </si>
-  <si>
-    <t>①未成年者といえども、公共の場で勝手なことをしてはならない。
-②いかに困難な状況にあったといえども、罪を犯したことは許されない。
-③人間は自然災害に対して無力だといえども、国を挙げての対策を強化する必要がある。
-④この不況下では、たとえ経営の神様といえども、この会社の立て直しは難しいだろう。
-⑤どんな大富豪といえども、この有名な絵を買うことはできない。</t>
-  </si>
-  <si>
-    <t>①②③のように事実のことにも、④⑤のように仮定のことにもつく。後には、主に義務・覚悟・話者の主張を表わす文が来る。また、「たとえ・いかに・どんな」などの言葉を一緒に使うことも多い。</t>
-  </si>
-  <si>
-    <t>～と思いきや</t>
-  </si>
-  <si>
-    <t>⇨～と思ったが、実際はそうではなかった。</t>
-  </si>
-  <si>
-    <t>普通形　＋と思いきや</t>
-  </si>
-  <si>
-    <t>①試験問題は簡単だったので、満点をとれたと思いきや、名前を書くのを忘れて0点にされてしまった。
-②あの政党は選挙で圧勝したので、長く政権が続くかと思いきや、たちまち支持率が落ち、1年ともたなかった。</t>
+      <t>）　＋ようでは</t>
+    </r>
+  </si>
+  <si>
+    <t>～くらいなら</t>
+  </si>
+  <si>
+    <t>⇨～という望ましくない状況になるよりは、そのほうがましだ。</t>
+  </si>
+  <si>
+    <t>【動】辞書形　＋くらいなら</t>
+  </si>
+  <si>
+    <t>①満員のバスに乗るくらいなら、駅まで20分歩くほうがいい。
+②その服、捨てるんですか。捨てるくらいなら、わたしにください。私が着ます。
+③途中でやめるくらいなら、始めからやらなければいいのに。</t>
+  </si>
+  <si>
+    <t>話者が最悪だと考えている事態を表わす文につく。後には、それよりはいいと考えていることを表わす文が来る。</t>
   </si>
 </sst>
 </file>
@@ -1179,10 +1250,10 @@
   <dimension ref="A2:G39"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane xSplit="3" ySplit="2" topLeftCell="F30" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="3" ySplit="2" topLeftCell="D36" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="F33" sqref="F33"/>
+      <selection pane="bottomRight" activeCell="D38" sqref="D38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.875" defaultRowHeight="15"/>
@@ -1190,7 +1261,7 @@
     <col min="1" max="2" width="10.875" style="1"/>
     <col min="3" max="3" width="25.625" style="1" customWidth="1"/>
     <col min="4" max="4" width="44.625" style="1" customWidth="1"/>
-    <col min="5" max="5" width="47.875" style="1" customWidth="1"/>
+    <col min="5" max="5" width="66.75" style="1" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="76.125" style="1" customWidth="1"/>
     <col min="7" max="7" width="57" style="1" customWidth="1"/>
     <col min="8" max="16384" width="10.875" style="1"/>
@@ -1795,13 +1866,13 @@
         <v>137</v>
       </c>
       <c r="E29" s="2" t="s">
+        <v>171</v>
+      </c>
+      <c r="F29" s="3" t="s">
         <v>138</v>
       </c>
-      <c r="F29" s="3" t="s">
+      <c r="G29" s="2" t="s">
         <v>139</v>
-      </c>
-      <c r="G29" s="2" t="s">
-        <v>140</v>
       </c>
     </row>
     <row r="30" spans="1:7" ht="105">
@@ -1812,19 +1883,19 @@
         <v>8</v>
       </c>
       <c r="C30" s="2" t="s">
+        <v>140</v>
+      </c>
+      <c r="D30" s="2" t="s">
         <v>141</v>
       </c>
-      <c r="D30" s="2" t="s">
+      <c r="E30" s="2" t="s">
+        <v>172</v>
+      </c>
+      <c r="F30" s="3" t="s">
         <v>142</v>
       </c>
-      <c r="E30" s="2" t="s">
+      <c r="G30" s="2" t="s">
         <v>143</v>
-      </c>
-      <c r="F30" s="3" t="s">
-        <v>144</v>
-      </c>
-      <c r="G30" s="2" t="s">
-        <v>145</v>
       </c>
     </row>
     <row r="31" spans="1:7" ht="75">
@@ -1835,19 +1906,19 @@
         <v>8</v>
       </c>
       <c r="C31" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="D31" s="2" t="s">
+        <v>145</v>
+      </c>
+      <c r="E31" s="2" t="s">
         <v>146</v>
       </c>
-      <c r="D31" s="2" t="s">
+      <c r="F31" s="3" t="s">
         <v>147</v>
       </c>
-      <c r="E31" s="2" t="s">
+      <c r="G31" s="2" t="s">
         <v>148</v>
-      </c>
-      <c r="F31" s="3" t="s">
-        <v>149</v>
-      </c>
-      <c r="G31" s="2" t="s">
-        <v>150</v>
       </c>
     </row>
     <row r="32" spans="1:7" ht="105">
@@ -1858,22 +1929,22 @@
         <v>8</v>
       </c>
       <c r="C32" s="2" t="s">
+        <v>149</v>
+      </c>
+      <c r="D32" s="2" t="s">
+        <v>150</v>
+      </c>
+      <c r="E32" s="2" t="s">
         <v>151</v>
       </c>
-      <c r="D32" s="2" t="s">
+      <c r="F32" s="3" t="s">
         <v>152</v>
       </c>
-      <c r="E32" s="2" t="s">
+      <c r="G32" s="2" t="s">
         <v>153</v>
       </c>
-      <c r="F32" s="3" t="s">
-        <v>154</v>
-      </c>
-      <c r="G32" s="2" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="33" spans="1:7" ht="60">
+    </row>
+    <row r="33" spans="1:7" ht="90">
       <c r="A33" s="2">
         <v>31</v>
       </c>
@@ -1881,75 +1952,135 @@
         <v>8</v>
       </c>
       <c r="C33" s="2" t="s">
+        <v>154</v>
+      </c>
+      <c r="D33" s="2" t="s">
+        <v>155</v>
+      </c>
+      <c r="E33" s="2" t="s">
         <v>156</v>
       </c>
-      <c r="D33" s="2" t="s">
+      <c r="F33" s="3" t="s">
         <v>157</v>
       </c>
-      <c r="E33" s="2" t="s">
+      <c r="G33" s="2" t="s">
         <v>158</v>
       </c>
-      <c r="F33" s="3" t="s">
-        <v>159</v>
-      </c>
-      <c r="G33" s="2"/>
-    </row>
-    <row r="34" spans="1:7">
+    </row>
+    <row r="34" spans="1:7" ht="60">
       <c r="A34" s="2">
         <v>32</v>
       </c>
       <c r="B34" s="4">
-        <v>8</v>
-      </c>
-      <c r="C34" s="2"/>
-      <c r="D34" s="2"/>
-      <c r="E34" s="2"/>
-      <c r="F34" s="3"/>
-      <c r="G34" s="2"/>
-    </row>
-    <row r="35" spans="1:7">
+        <v>9</v>
+      </c>
+      <c r="C34" s="2" t="s">
+        <v>159</v>
+      </c>
+      <c r="D34" s="2" t="s">
+        <v>160</v>
+      </c>
+      <c r="E34" s="2" t="s">
+        <v>161</v>
+      </c>
+      <c r="F34" s="3" t="s">
+        <v>163</v>
+      </c>
+      <c r="G34" s="2" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7" ht="45">
       <c r="A35" s="2">
         <v>33</v>
       </c>
-      <c r="B35" s="4"/>
-      <c r="C35" s="2"/>
-      <c r="D35" s="2"/>
-      <c r="E35" s="2"/>
-      <c r="F35" s="3"/>
-      <c r="G35" s="2"/>
-    </row>
-    <row r="36" spans="1:7">
+      <c r="B35" s="4">
+        <v>9</v>
+      </c>
+      <c r="C35" s="2" t="s">
+        <v>164</v>
+      </c>
+      <c r="D35" s="2" t="s">
+        <v>165</v>
+      </c>
+      <c r="E35" s="2" t="s">
+        <v>166</v>
+      </c>
+      <c r="F35" s="3" t="s">
+        <v>167</v>
+      </c>
+      <c r="G35" s="2" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7" ht="60">
       <c r="A36" s="2">
         <v>34</v>
       </c>
-      <c r="B36" s="4"/>
-      <c r="C36" s="2"/>
-      <c r="D36" s="2"/>
-      <c r="E36" s="2"/>
-      <c r="F36" s="3"/>
-      <c r="G36" s="2"/>
-    </row>
-    <row r="37" spans="1:7">
+      <c r="B36" s="4">
+        <v>9</v>
+      </c>
+      <c r="C36" s="2" t="s">
+        <v>169</v>
+      </c>
+      <c r="D36" s="2" t="s">
+        <v>170</v>
+      </c>
+      <c r="E36" s="2" t="s">
+        <v>180</v>
+      </c>
+      <c r="F36" s="3" t="s">
+        <v>173</v>
+      </c>
+      <c r="G36" s="2" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7" ht="75">
       <c r="A37" s="2">
         <v>35</v>
       </c>
-      <c r="B37" s="4"/>
-      <c r="C37" s="2"/>
-      <c r="D37" s="2"/>
-      <c r="E37" s="2"/>
-      <c r="F37" s="3"/>
-      <c r="G37" s="2"/>
-    </row>
-    <row r="38" spans="1:7">
+      <c r="B37" s="4">
+        <v>9</v>
+      </c>
+      <c r="C37" s="2" t="s">
+        <v>175</v>
+      </c>
+      <c r="D37" s="2" t="s">
+        <v>176</v>
+      </c>
+      <c r="E37" s="2" t="s">
+        <v>177</v>
+      </c>
+      <c r="F37" s="3" t="s">
+        <v>178</v>
+      </c>
+      <c r="G37" s="2" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7" ht="60">
       <c r="A38" s="2">
         <v>36</v>
       </c>
-      <c r="B38" s="4"/>
-      <c r="C38" s="2"/>
-      <c r="D38" s="2"/>
-      <c r="E38" s="2"/>
-      <c r="F38" s="3"/>
-      <c r="G38" s="2"/>
+      <c r="B38" s="4">
+        <v>9</v>
+      </c>
+      <c r="C38" s="2" t="s">
+        <v>181</v>
+      </c>
+      <c r="D38" s="2" t="s">
+        <v>182</v>
+      </c>
+      <c r="E38" s="2" t="s">
+        <v>183</v>
+      </c>
+      <c r="F38" s="3" t="s">
+        <v>184</v>
+      </c>
+      <c r="G38" s="2" t="s">
+        <v>185</v>
+      </c>
     </row>
     <row r="39" spans="1:7">
       <c r="A39" s="2">

--- a/BunpoN1.xlsx
+++ b/BunpoN1.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="187" uniqueCount="186">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="271" uniqueCount="210">
   <si>
     <t>番号</t>
   </si>
@@ -837,6 +837,117 @@
   </si>
   <si>
     <t>話者が最悪だと考えている事態を表わす文につく。後には、それよりはいいと考えていることを表わす文が来る。</t>
+  </si>
+  <si>
+    <t>～（よ）うと（も）・～（よ）うが</t>
+  </si>
+  <si>
+    <t>【動】う・よう形・【イ形】かろう・【ナ形】－だろう／－であろう・【名】－だろう／－であろう　＋と（も）・が</t>
+  </si>
+  <si>
+    <t>①たとえ大地震が起ころうと、このビルは安全なはずだ。
+②社長は何を言われようが、自分のやり方を押し通した。
+③目標までどんな遠かろうと、僕は夢を捨てないぞ。
+④いかに困難だろうと、戦争のない世界を目指して闘いたい。
+⑤たとえ有名な政治家であろうとも、家庭では普通の親でしかない。</t>
+  </si>
+  <si>
+    <t>後には、前の条件に影響されないことを表わす文が来る。話者の判断・決意などを表わす文が来ることが多い。また、「たとえ・いかに・どんなに」などの言葉を一緒に使うことも多い。</t>
+  </si>
+  <si>
+    <t>～（よ）うと～まいと・～（よ）うが～まいが</t>
+  </si>
+  <si>
+    <t>⇨～しても～しなくても、どちらでも関係ない・影響されない。</t>
+  </si>
+  <si>
+    <r>
+      <t>【動】う・よう形　＋と・が＋【動】辞書形　＋まい＋と・が
+※動Ⅱ・Ⅲ→【動】辞書形／</t>
+    </r>
+    <r>
+      <rPr>
+        <strike/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="明朝"/>
+        <charset val="128"/>
+      </rPr>
+      <t>ます</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="明朝"/>
+        <charset val="128"/>
+      </rPr>
+      <t>　＋まい　　　する→するまい・すまい</t>
+    </r>
+  </si>
+  <si>
+    <t>①田中先生は、学生たちが理解しようとするまいと、どんどん難しい話を続けた。
+②雨が降ろうが振る降るまいが、サッカーの練習に休みは二。
+③合格の見込みがあろうがあるまいが、今はただ頑張るだけです。</t>
+  </si>
+  <si>
+    <t>同じ動詞を繰り返して使う。後には、前の条件のどちらにも影響されないことを表わす文が来る。話者の判断・決意などを表わす文が来ることが多い。</t>
+  </si>
+  <si>
+    <t>～であれ・～であろうと</t>
+  </si>
+  <si>
+    <t>⇨たとえ～ても、それに関係ない・影響されない。</t>
+  </si>
+  <si>
+    <t>⇨～ても、それに関係ない・影響されない。</t>
+  </si>
+  <si>
+    <t>【名】・疑問詞　＋であれ・であろうと</t>
+  </si>
+  <si>
+    <t>①たとえ嵐の夜であれ、私は仕事のためなら外出する。
+②どんな権力者であれ、いつかは命の終わりが来る。
+③理由が何であれ、無断欠席は許されない。
+④君に会うためなら、たとえ火の中、水の中であろうと、僕は平気だ。</t>
+  </si>
+  <si>
+    <t>～たところで</t>
+  </si>
+  <si>
+    <t>⇨～をやってみても・～という状態になっても、無意味だ・無駄だ。</t>
+  </si>
+  <si>
+    <t>【動】た形　＋ところで</t>
+  </si>
+  <si>
+    <t>①今更駆け付けたところで、もう会議は終わっているだろう。
+②どんなに説明したところで、私の気持ちはわかってもらえないだろう。
+③フリーマーケットでは品物が全部売れたところで、もうけはあまりない。
+④いくら謝ったところで、彼女との関係は元には戻らないと思う。</t>
+  </si>
+  <si>
+    <t>後には、否定的な判断を表わす文が来る。話者の希望・意向を表わす文や働きかけ、過去の文などは来ない。「いくら・どんなに・今さら」などの言葉を一緒に使うことが多い。</t>
+  </si>
+  <si>
+    <t>～ば～で・～なら～で・～たら～たで</t>
+  </si>
+  <si>
+    <t>⇨状況が～であっても、想像しているようには良くない・悪くない。</t>
+  </si>
+  <si>
+    <t>①家は広いほうがいいが、広ければ広いで、掃除が大変だろう。
+②退職前は毎日忙しくて大変でしたが、暇になってみると、暇なら暇で悩みも出てくるものです。
+③食材がなかったらなかったで、簡単な料理で済ませましょう。
+④引っ越しの前も大変だったが、引っ越したら引っ越したで、またやらなければなれないことがたくさんある。</t>
+  </si>
+  <si>
+    <t>【動】ば形／たら＋【動】た形　＋で
+【イ形】ければ＋【イ形】い　＋で　　【イ形】かったら＋【イ形】かった　＋で
+【ナ形】－なら＋【ナ形】　＋で</t>
+  </si>
+  <si>
+    <t>同じ言葉を繰り返して使う。後には、①②④のように問題があるという意味の文、または③のように問題はないという意味の文が来る。</t>
   </si>
 </sst>
 </file>
@@ -1247,19 +1358,19 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:G39"/>
+  <dimension ref="A2:G102"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane xSplit="3" ySplit="2" topLeftCell="D36" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="3" ySplit="2" topLeftCell="D43" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="D38" sqref="D38"/>
+      <selection pane="bottomRight" activeCell="B44" sqref="B44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.875" defaultRowHeight="15"/>
   <cols>
     <col min="1" max="2" width="10.875" style="1"/>
-    <col min="3" max="3" width="25.625" style="1" customWidth="1"/>
+    <col min="3" max="3" width="36.75" style="1" customWidth="1"/>
     <col min="4" max="4" width="44.625" style="1" customWidth="1"/>
     <col min="5" max="5" width="66.75" style="1" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="76.125" style="1" customWidth="1"/>
@@ -2082,18 +2193,889 @@
         <v>185</v>
       </c>
     </row>
-    <row r="39" spans="1:7">
+    <row r="39" spans="1:7" ht="75">
       <c r="A39" s="2">
         <v>37</v>
       </c>
-      <c r="B39" s="4"/>
-      <c r="C39" s="2"/>
-      <c r="D39" s="2"/>
-      <c r="E39" s="2"/>
+      <c r="B39" s="4">
+        <v>10</v>
+      </c>
+      <c r="C39" s="2" t="s">
+        <v>186</v>
+      </c>
+      <c r="D39" s="2" t="s">
+        <v>197</v>
+      </c>
+      <c r="E39" s="2" t="s">
+        <v>187</v>
+      </c>
       <c r="F39" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="G39" s="2"/>
+        <v>188</v>
+      </c>
+      <c r="G39" s="2" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7" ht="60">
+      <c r="A40" s="2">
+        <v>38</v>
+      </c>
+      <c r="B40" s="4">
+        <v>10</v>
+      </c>
+      <c r="C40" s="2" t="s">
+        <v>190</v>
+      </c>
+      <c r="D40" s="2" t="s">
+        <v>191</v>
+      </c>
+      <c r="E40" s="2" t="s">
+        <v>192</v>
+      </c>
+      <c r="F40" s="3" t="s">
+        <v>193</v>
+      </c>
+      <c r="G40" s="2" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7" ht="60">
+      <c r="A41" s="2">
+        <v>39</v>
+      </c>
+      <c r="B41" s="4">
+        <v>10</v>
+      </c>
+      <c r="C41" s="2" t="s">
+        <v>195</v>
+      </c>
+      <c r="D41" s="2" t="s">
+        <v>196</v>
+      </c>
+      <c r="E41" s="2" t="s">
+        <v>198</v>
+      </c>
+      <c r="F41" s="3" t="s">
+        <v>199</v>
+      </c>
+      <c r="G41" s="2" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7" ht="60">
+      <c r="A42" s="2">
+        <v>40</v>
+      </c>
+      <c r="B42" s="4">
+        <v>10</v>
+      </c>
+      <c r="C42" s="2" t="s">
+        <v>200</v>
+      </c>
+      <c r="D42" s="2" t="s">
+        <v>201</v>
+      </c>
+      <c r="E42" s="2" t="s">
+        <v>202</v>
+      </c>
+      <c r="F42" s="3" t="s">
+        <v>203</v>
+      </c>
+      <c r="G42" s="2" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="43" spans="1:7" ht="90">
+      <c r="A43" s="2">
+        <v>41</v>
+      </c>
+      <c r="B43" s="4">
+        <v>10</v>
+      </c>
+      <c r="C43" s="2" t="s">
+        <v>205</v>
+      </c>
+      <c r="D43" s="2" t="s">
+        <v>206</v>
+      </c>
+      <c r="E43" s="2" t="s">
+        <v>208</v>
+      </c>
+      <c r="F43" s="3" t="s">
+        <v>207</v>
+      </c>
+      <c r="G43" s="2" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="44" spans="1:7">
+      <c r="A44" s="2">
+        <v>42</v>
+      </c>
+      <c r="B44" s="4"/>
+      <c r="C44" s="2"/>
+      <c r="D44" s="2"/>
+      <c r="E44" s="2"/>
+      <c r="F44" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="G44" s="2"/>
+    </row>
+    <row r="45" spans="1:7">
+      <c r="A45" s="2">
+        <v>43</v>
+      </c>
+      <c r="B45" s="4"/>
+      <c r="C45" s="2"/>
+      <c r="D45" s="2"/>
+      <c r="E45" s="2"/>
+      <c r="F45" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="G45" s="2"/>
+    </row>
+    <row r="46" spans="1:7">
+      <c r="A46" s="2">
+        <v>44</v>
+      </c>
+      <c r="B46" s="4"/>
+      <c r="C46" s="2"/>
+      <c r="D46" s="2"/>
+      <c r="E46" s="2"/>
+      <c r="F46" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="G46" s="2"/>
+    </row>
+    <row r="47" spans="1:7">
+      <c r="A47" s="2">
+        <v>45</v>
+      </c>
+      <c r="B47" s="4"/>
+      <c r="C47" s="2"/>
+      <c r="D47" s="2"/>
+      <c r="E47" s="2"/>
+      <c r="F47" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="G47" s="2"/>
+    </row>
+    <row r="48" spans="1:7">
+      <c r="A48" s="2">
+        <v>46</v>
+      </c>
+      <c r="B48" s="4"/>
+      <c r="C48" s="2"/>
+      <c r="D48" s="2"/>
+      <c r="E48" s="2"/>
+      <c r="F48" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="G48" s="2"/>
+    </row>
+    <row r="49" spans="1:7">
+      <c r="A49" s="2">
+        <v>47</v>
+      </c>
+      <c r="B49" s="4"/>
+      <c r="C49" s="2"/>
+      <c r="D49" s="2"/>
+      <c r="E49" s="2"/>
+      <c r="F49" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="G49" s="2"/>
+    </row>
+    <row r="50" spans="1:7">
+      <c r="A50" s="2">
+        <v>48</v>
+      </c>
+      <c r="B50" s="4"/>
+      <c r="C50" s="2"/>
+      <c r="D50" s="2"/>
+      <c r="E50" s="2"/>
+      <c r="F50" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="G50" s="2"/>
+    </row>
+    <row r="51" spans="1:7">
+      <c r="A51" s="2">
+        <v>49</v>
+      </c>
+      <c r="B51" s="4"/>
+      <c r="C51" s="2"/>
+      <c r="D51" s="2"/>
+      <c r="E51" s="2"/>
+      <c r="F51" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="G51" s="2"/>
+    </row>
+    <row r="52" spans="1:7">
+      <c r="A52" s="2">
+        <v>50</v>
+      </c>
+      <c r="B52" s="4"/>
+      <c r="C52" s="2"/>
+      <c r="D52" s="2"/>
+      <c r="E52" s="2"/>
+      <c r="F52" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="G52" s="2"/>
+    </row>
+    <row r="53" spans="1:7">
+      <c r="A53" s="2">
+        <v>51</v>
+      </c>
+      <c r="B53" s="4"/>
+      <c r="C53" s="2"/>
+      <c r="D53" s="2"/>
+      <c r="E53" s="2"/>
+      <c r="F53" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="G53" s="2"/>
+    </row>
+    <row r="54" spans="1:7">
+      <c r="A54" s="2">
+        <v>52</v>
+      </c>
+      <c r="B54" s="4"/>
+      <c r="C54" s="2"/>
+      <c r="D54" s="2"/>
+      <c r="E54" s="2"/>
+      <c r="F54" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="G54" s="2"/>
+    </row>
+    <row r="55" spans="1:7">
+      <c r="A55" s="2">
+        <v>53</v>
+      </c>
+      <c r="B55" s="4"/>
+      <c r="C55" s="2"/>
+      <c r="D55" s="2"/>
+      <c r="E55" s="2"/>
+      <c r="F55" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="G55" s="2"/>
+    </row>
+    <row r="56" spans="1:7">
+      <c r="A56" s="2">
+        <v>54</v>
+      </c>
+      <c r="B56" s="4"/>
+      <c r="C56" s="2"/>
+      <c r="D56" s="2"/>
+      <c r="E56" s="2"/>
+      <c r="F56" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="G56" s="2"/>
+    </row>
+    <row r="57" spans="1:7">
+      <c r="A57" s="2">
+        <v>55</v>
+      </c>
+      <c r="B57" s="4"/>
+      <c r="C57" s="2"/>
+      <c r="D57" s="2"/>
+      <c r="E57" s="2"/>
+      <c r="F57" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="G57" s="2"/>
+    </row>
+    <row r="58" spans="1:7">
+      <c r="A58" s="2">
+        <v>56</v>
+      </c>
+      <c r="B58" s="4"/>
+      <c r="C58" s="2"/>
+      <c r="D58" s="2"/>
+      <c r="E58" s="2"/>
+      <c r="F58" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="G58" s="2"/>
+    </row>
+    <row r="59" spans="1:7">
+      <c r="A59" s="2">
+        <v>57</v>
+      </c>
+      <c r="B59" s="4"/>
+      <c r="C59" s="2"/>
+      <c r="D59" s="2"/>
+      <c r="E59" s="2"/>
+      <c r="F59" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="G59" s="2"/>
+    </row>
+    <row r="60" spans="1:7">
+      <c r="A60" s="2">
+        <v>58</v>
+      </c>
+      <c r="B60" s="4"/>
+      <c r="C60" s="2"/>
+      <c r="D60" s="2"/>
+      <c r="E60" s="2"/>
+      <c r="F60" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="G60" s="2"/>
+    </row>
+    <row r="61" spans="1:7">
+      <c r="A61" s="2">
+        <v>59</v>
+      </c>
+      <c r="B61" s="4"/>
+      <c r="C61" s="2"/>
+      <c r="D61" s="2"/>
+      <c r="E61" s="2"/>
+      <c r="F61" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="G61" s="2"/>
+    </row>
+    <row r="62" spans="1:7">
+      <c r="A62" s="2">
+        <v>60</v>
+      </c>
+      <c r="B62" s="4"/>
+      <c r="C62" s="2"/>
+      <c r="D62" s="2"/>
+      <c r="E62" s="2"/>
+      <c r="F62" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="G62" s="2"/>
+    </row>
+    <row r="63" spans="1:7">
+      <c r="A63" s="2">
+        <v>61</v>
+      </c>
+      <c r="B63" s="4"/>
+      <c r="C63" s="2"/>
+      <c r="D63" s="2"/>
+      <c r="E63" s="2"/>
+      <c r="F63" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="G63" s="2"/>
+    </row>
+    <row r="64" spans="1:7">
+      <c r="A64" s="2">
+        <v>62</v>
+      </c>
+      <c r="B64" s="4"/>
+      <c r="C64" s="2"/>
+      <c r="D64" s="2"/>
+      <c r="E64" s="2"/>
+      <c r="F64" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="G64" s="2"/>
+    </row>
+    <row r="65" spans="1:7">
+      <c r="A65" s="2">
+        <v>63</v>
+      </c>
+      <c r="B65" s="4"/>
+      <c r="C65" s="2"/>
+      <c r="D65" s="2"/>
+      <c r="E65" s="2"/>
+      <c r="F65" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="G65" s="2"/>
+    </row>
+    <row r="66" spans="1:7">
+      <c r="A66" s="2">
+        <v>64</v>
+      </c>
+      <c r="B66" s="4"/>
+      <c r="C66" s="2"/>
+      <c r="D66" s="2"/>
+      <c r="E66" s="2"/>
+      <c r="F66" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="G66" s="2"/>
+    </row>
+    <row r="67" spans="1:7">
+      <c r="A67" s="2">
+        <v>65</v>
+      </c>
+      <c r="B67" s="4"/>
+      <c r="C67" s="2"/>
+      <c r="D67" s="2"/>
+      <c r="E67" s="2"/>
+      <c r="F67" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="G67" s="2"/>
+    </row>
+    <row r="68" spans="1:7">
+      <c r="A68" s="2">
+        <v>66</v>
+      </c>
+      <c r="B68" s="4"/>
+      <c r="C68" s="2"/>
+      <c r="D68" s="2"/>
+      <c r="E68" s="2"/>
+      <c r="F68" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="G68" s="2"/>
+    </row>
+    <row r="69" spans="1:7">
+      <c r="A69" s="2">
+        <v>67</v>
+      </c>
+      <c r="B69" s="4"/>
+      <c r="C69" s="2"/>
+      <c r="D69" s="2"/>
+      <c r="E69" s="2"/>
+      <c r="F69" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="G69" s="2"/>
+    </row>
+    <row r="70" spans="1:7">
+      <c r="A70" s="2">
+        <v>68</v>
+      </c>
+      <c r="B70" s="4"/>
+      <c r="C70" s="2"/>
+      <c r="D70" s="2"/>
+      <c r="E70" s="2"/>
+      <c r="F70" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="G70" s="2"/>
+    </row>
+    <row r="71" spans="1:7">
+      <c r="A71" s="2">
+        <v>69</v>
+      </c>
+      <c r="B71" s="4"/>
+      <c r="C71" s="2"/>
+      <c r="D71" s="2"/>
+      <c r="E71" s="2"/>
+      <c r="F71" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="G71" s="2"/>
+    </row>
+    <row r="72" spans="1:7">
+      <c r="A72" s="2">
+        <v>70</v>
+      </c>
+      <c r="B72" s="4"/>
+      <c r="C72" s="2"/>
+      <c r="D72" s="2"/>
+      <c r="E72" s="2"/>
+      <c r="F72" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="G72" s="2"/>
+    </row>
+    <row r="73" spans="1:7">
+      <c r="A73" s="2">
+        <v>71</v>
+      </c>
+      <c r="B73" s="4"/>
+      <c r="C73" s="2"/>
+      <c r="D73" s="2"/>
+      <c r="E73" s="2"/>
+      <c r="F73" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="G73" s="2"/>
+    </row>
+    <row r="74" spans="1:7">
+      <c r="A74" s="2">
+        <v>72</v>
+      </c>
+      <c r="B74" s="4"/>
+      <c r="C74" s="2"/>
+      <c r="D74" s="2"/>
+      <c r="E74" s="2"/>
+      <c r="F74" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="G74" s="2"/>
+    </row>
+    <row r="75" spans="1:7">
+      <c r="A75" s="2">
+        <v>73</v>
+      </c>
+      <c r="B75" s="4"/>
+      <c r="C75" s="2"/>
+      <c r="D75" s="2"/>
+      <c r="E75" s="2"/>
+      <c r="F75" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="G75" s="2"/>
+    </row>
+    <row r="76" spans="1:7">
+      <c r="A76" s="2">
+        <v>74</v>
+      </c>
+      <c r="B76" s="4"/>
+      <c r="C76" s="2"/>
+      <c r="D76" s="2"/>
+      <c r="E76" s="2"/>
+      <c r="F76" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="G76" s="2"/>
+    </row>
+    <row r="77" spans="1:7">
+      <c r="A77" s="2">
+        <v>75</v>
+      </c>
+      <c r="B77" s="4"/>
+      <c r="C77" s="2"/>
+      <c r="D77" s="2"/>
+      <c r="E77" s="2"/>
+      <c r="F77" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="G77" s="2"/>
+    </row>
+    <row r="78" spans="1:7">
+      <c r="A78" s="2">
+        <v>76</v>
+      </c>
+      <c r="B78" s="4"/>
+      <c r="C78" s="2"/>
+      <c r="D78" s="2"/>
+      <c r="E78" s="2"/>
+      <c r="F78" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="G78" s="2"/>
+    </row>
+    <row r="79" spans="1:7">
+      <c r="A79" s="2">
+        <v>77</v>
+      </c>
+      <c r="B79" s="4"/>
+      <c r="C79" s="2"/>
+      <c r="D79" s="2"/>
+      <c r="E79" s="2"/>
+      <c r="F79" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="G79" s="2"/>
+    </row>
+    <row r="80" spans="1:7">
+      <c r="A80" s="2">
+        <v>78</v>
+      </c>
+      <c r="B80" s="4"/>
+      <c r="C80" s="2"/>
+      <c r="D80" s="2"/>
+      <c r="E80" s="2"/>
+      <c r="F80" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="G80" s="2"/>
+    </row>
+    <row r="81" spans="1:7">
+      <c r="A81" s="2">
+        <v>79</v>
+      </c>
+      <c r="B81" s="4"/>
+      <c r="C81" s="2"/>
+      <c r="D81" s="2"/>
+      <c r="E81" s="2"/>
+      <c r="F81" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="G81" s="2"/>
+    </row>
+    <row r="82" spans="1:7">
+      <c r="A82" s="2">
+        <v>80</v>
+      </c>
+      <c r="B82" s="4"/>
+      <c r="C82" s="2"/>
+      <c r="D82" s="2"/>
+      <c r="E82" s="2"/>
+      <c r="F82" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="G82" s="2"/>
+    </row>
+    <row r="83" spans="1:7">
+      <c r="A83" s="2">
+        <v>81</v>
+      </c>
+      <c r="B83" s="4"/>
+      <c r="C83" s="2"/>
+      <c r="D83" s="2"/>
+      <c r="E83" s="2"/>
+      <c r="F83" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="G83" s="2"/>
+    </row>
+    <row r="84" spans="1:7">
+      <c r="A84" s="2">
+        <v>82</v>
+      </c>
+      <c r="B84" s="4"/>
+      <c r="C84" s="2"/>
+      <c r="D84" s="2"/>
+      <c r="E84" s="2"/>
+      <c r="F84" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="G84" s="2"/>
+    </row>
+    <row r="85" spans="1:7">
+      <c r="A85" s="2">
+        <v>83</v>
+      </c>
+      <c r="B85" s="4"/>
+      <c r="C85" s="2"/>
+      <c r="D85" s="2"/>
+      <c r="E85" s="2"/>
+      <c r="F85" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="G85" s="2"/>
+    </row>
+    <row r="86" spans="1:7">
+      <c r="A86" s="2">
+        <v>84</v>
+      </c>
+      <c r="B86" s="4"/>
+      <c r="C86" s="2"/>
+      <c r="D86" s="2"/>
+      <c r="E86" s="2"/>
+      <c r="F86" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="G86" s="2"/>
+    </row>
+    <row r="87" spans="1:7">
+      <c r="A87" s="2">
+        <v>85</v>
+      </c>
+      <c r="B87" s="4"/>
+      <c r="C87" s="2"/>
+      <c r="D87" s="2"/>
+      <c r="E87" s="2"/>
+      <c r="F87" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="G87" s="2"/>
+    </row>
+    <row r="88" spans="1:7">
+      <c r="A88" s="2">
+        <v>86</v>
+      </c>
+      <c r="B88" s="4"/>
+      <c r="C88" s="2"/>
+      <c r="D88" s="2"/>
+      <c r="E88" s="2"/>
+      <c r="F88" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="G88" s="2"/>
+    </row>
+    <row r="89" spans="1:7">
+      <c r="A89" s="2">
+        <v>87</v>
+      </c>
+      <c r="B89" s="4"/>
+      <c r="C89" s="2"/>
+      <c r="D89" s="2"/>
+      <c r="E89" s="2"/>
+      <c r="F89" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="G89" s="2"/>
+    </row>
+    <row r="90" spans="1:7">
+      <c r="A90" s="2">
+        <v>88</v>
+      </c>
+      <c r="B90" s="4"/>
+      <c r="C90" s="2"/>
+      <c r="D90" s="2"/>
+      <c r="E90" s="2"/>
+      <c r="F90" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="G90" s="2"/>
+    </row>
+    <row r="91" spans="1:7">
+      <c r="A91" s="2">
+        <v>89</v>
+      </c>
+      <c r="B91" s="4"/>
+      <c r="C91" s="2"/>
+      <c r="D91" s="2"/>
+      <c r="E91" s="2"/>
+      <c r="F91" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="G91" s="2"/>
+    </row>
+    <row r="92" spans="1:7">
+      <c r="A92" s="2">
+        <v>90</v>
+      </c>
+      <c r="B92" s="4"/>
+      <c r="C92" s="2"/>
+      <c r="D92" s="2"/>
+      <c r="E92" s="2"/>
+      <c r="F92" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="G92" s="2"/>
+    </row>
+    <row r="93" spans="1:7">
+      <c r="A93" s="2">
+        <v>91</v>
+      </c>
+      <c r="B93" s="4"/>
+      <c r="C93" s="2"/>
+      <c r="D93" s="2"/>
+      <c r="E93" s="2"/>
+      <c r="F93" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="G93" s="2"/>
+    </row>
+    <row r="94" spans="1:7">
+      <c r="A94" s="2">
+        <v>92</v>
+      </c>
+      <c r="B94" s="4"/>
+      <c r="C94" s="2"/>
+      <c r="D94" s="2"/>
+      <c r="E94" s="2"/>
+      <c r="F94" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="G94" s="2"/>
+    </row>
+    <row r="95" spans="1:7">
+      <c r="A95" s="2">
+        <v>93</v>
+      </c>
+      <c r="B95" s="4"/>
+      <c r="C95" s="2"/>
+      <c r="D95" s="2"/>
+      <c r="E95" s="2"/>
+      <c r="F95" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="G95" s="2"/>
+    </row>
+    <row r="96" spans="1:7">
+      <c r="A96" s="2">
+        <v>94</v>
+      </c>
+      <c r="B96" s="4"/>
+      <c r="C96" s="2"/>
+      <c r="D96" s="2"/>
+      <c r="E96" s="2"/>
+      <c r="F96" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="G96" s="2"/>
+    </row>
+    <row r="97" spans="1:7">
+      <c r="A97" s="2">
+        <v>95</v>
+      </c>
+      <c r="B97" s="4"/>
+      <c r="C97" s="2"/>
+      <c r="D97" s="2"/>
+      <c r="E97" s="2"/>
+      <c r="F97" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="G97" s="2"/>
+    </row>
+    <row r="98" spans="1:7">
+      <c r="A98" s="2">
+        <v>96</v>
+      </c>
+      <c r="B98" s="4"/>
+      <c r="C98" s="2"/>
+      <c r="D98" s="2"/>
+      <c r="E98" s="2"/>
+      <c r="F98" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="G98" s="2"/>
+    </row>
+    <row r="99" spans="1:7">
+      <c r="A99" s="2">
+        <v>97</v>
+      </c>
+      <c r="B99" s="4"/>
+      <c r="C99" s="2"/>
+      <c r="D99" s="2"/>
+      <c r="E99" s="2"/>
+      <c r="F99" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="G99" s="2"/>
+    </row>
+    <row r="100" spans="1:7">
+      <c r="A100" s="2">
+        <v>98</v>
+      </c>
+      <c r="B100" s="4"/>
+      <c r="C100" s="2"/>
+      <c r="D100" s="2"/>
+      <c r="E100" s="2"/>
+      <c r="F100" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="G100" s="2"/>
+    </row>
+    <row r="101" spans="1:7">
+      <c r="A101" s="2">
+        <v>99</v>
+      </c>
+      <c r="B101" s="4"/>
+      <c r="C101" s="2"/>
+      <c r="D101" s="2"/>
+      <c r="E101" s="2"/>
+      <c r="F101" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="G101" s="2"/>
+    </row>
+    <row r="102" spans="1:7">
+      <c r="A102" s="2">
+        <v>100</v>
+      </c>
+      <c r="B102" s="4"/>
+      <c r="C102" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D102" s="2"/>
+      <c r="E102" s="2"/>
+      <c r="F102" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="G102" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/BunpoN1.xlsx
+++ b/BunpoN1.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="271" uniqueCount="210">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="295" uniqueCount="239">
   <si>
     <t>番号</t>
   </si>
@@ -948,6 +948,128 @@
   </si>
   <si>
     <t>同じ言葉を繰り返して使う。後には、①②④のように問題があるという意味の文、または③のように問題はないという意味の文が来る。</t>
+  </si>
+  <si>
+    <t>～べく</t>
+  </si>
+  <si>
+    <t>⇨～ようと思ってある行為をする。（書き言葉）</t>
+  </si>
+  <si>
+    <t>【動】辞書形　＋べく
+※例外　する→するべく・すべく</t>
+  </si>
+  <si>
+    <t>①彼はサッカー選手になるべく、毎日厳しい練習をしている。
+②新型の機械を購入するべく、社長はいろいろ調べている。
+③介護ロボットを開発するべく、私たちは今日も実験を続ける。</t>
+  </si>
+  <si>
+    <t>意志動詞につく。後にも意識行為を表わす文が来る。働きかけを表わす文は来ない。前後の主語は同じ。</t>
+  </si>
+  <si>
+    <t>～んがため（に）</t>
+  </si>
+  <si>
+    <t>⇨～という目的をもってある行為をする。（書き言葉）</t>
+  </si>
+  <si>
+    <r>
+      <t>【動】</t>
+    </r>
+    <r>
+      <rPr>
+        <strike/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="明朝"/>
+        <charset val="128"/>
+      </rPr>
+      <t>ない</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="明朝"/>
+      </rPr>
+      <t>　＋んがため（に）
+※例外　する→せん</t>
+    </r>
+  </si>
+  <si>
+    <t>①彼女は選手になりたいという夢を実現させんがため、上京した。
+②ライオンがシマウマを食べるのは残酷に見えるが、ライオンは生きんがために、そうするのである。
+③自分の利益を得んがための発言では、人の心を動かせない。</t>
+  </si>
+  <si>
+    <t>重大な目的を表わす言葉（意志動詞）につく。後にも意志的行為を表わす表現が来る。働きかけを表わす文は来ない。前後の主語は同じ。日常的な場面で使わない。</t>
+  </si>
+  <si>
+    <t>⇨～を手段としてある行為をする。（硬い言葉）</t>
+  </si>
+  <si>
+    <t>【名】　＋をもって</t>
+  </si>
+  <si>
+    <t>①本日の採用試験の結果は後日書面をもってご連絡いたします。
+②何をもって人の価格を評価するかは難しい問題だ。
+③最新の医療技術をもってすれば、人はさらに寿命を延ばせるだろう。</t>
+  </si>
+  <si>
+    <t>日常的・具体的な道具や方法などには使わない。③の「～をもってすれば」は慣用的な言い方で、「～」の力を高く評価することを表わす。</t>
+  </si>
+  <si>
+    <t>～ばこそ</t>
+  </si>
+  <si>
+    <t>⇨まだに～からそうなる・～からあえてそうする。</t>
+  </si>
+  <si>
+    <t>【動】ば形・【イ形】ければ・【名】であれば　＋こそ</t>
+  </si>
+  <si>
+    <t>①心身健康であればこそ、大きな仕事に挑戦できるのです。まずは健康に注意しなさい。
+②愛していればこそ、別れるのです。私の気持ち、わかってください。
+③今苦しければこそ、後で本当の喜びがある。</t>
+  </si>
+  <si>
+    <t>通常は直接的な理由として考えにくいことをあえて理由として強調する。後には、「のだ」の文が来ることが多い。</t>
+  </si>
+  <si>
+    <t>～とあって</t>
+  </si>
+  <si>
+    <t>⇨～という特別な状況だから、当然結果も特別だ。</t>
+  </si>
+  <si>
+    <t>【名】・普通形　＋とあって</t>
+  </si>
+  <si>
+    <t>①久しぶりの快晴の連休とあって、行楽地はどこも人でいっぱいだった。
+②その女優は初めて映画の主役を務めるとあって、とても緊張している様子だ。
+③新聞で店主の絵のことが報道されたとあって、この店に来る客はみんな店に飾られた絵を眺めていく。</t>
+  </si>
+  <si>
+    <t>平常とは違う特別な状況を表わす言葉につく。後には、その状況から当然出てくる結果を表わす文が来る。話者自身のことには使わない。</t>
+  </si>
+  <si>
+    <t>～ではあるまいし</t>
+  </si>
+  <si>
+    <t>⇨～ならそのようなこともあるかもしれないが、～ではないのだから。（話し言葉）</t>
+  </si>
+  <si>
+    <t>【名】　＋ではるまいし</t>
+  </si>
+  <si>
+    <t>①子供ではあるまいし、眠かったり空腹だったりするだけでそんなに不機嫌な顔をするものではない。
+②犬や猫じゃあるまいし、上の人の言葉に従うだけなんてごめんだ。
+③面接試験は初めてではあるまいし、今回はどうしてそんなに緊張するの？
+④あなたが悪かったではあるまいし、そんなに自分を責めることはないよ。</t>
+  </si>
+  <si>
+    <t>後には、話者の判断・主張・忠告など、現状を否定するようなニュアンスの文が来る。④のように普通形で「～わけではあるまいし・～のではあるまいし」の形で名詞以外にもつく。</t>
   </si>
 </sst>
 </file>
@@ -1361,10 +1483,10 @@
   <dimension ref="A2:G102"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane xSplit="3" ySplit="2" topLeftCell="D43" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="3" ySplit="2" topLeftCell="G46" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="B44" sqref="B44"/>
+      <selection pane="bottomRight" activeCell="G49" sqref="G49"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.875" defaultRowHeight="15"/>
@@ -2308,83 +2430,143 @@
         <v>209</v>
       </c>
     </row>
-    <row r="44" spans="1:7">
+    <row r="44" spans="1:7" ht="45">
       <c r="A44" s="2">
         <v>42</v>
       </c>
-      <c r="B44" s="4"/>
-      <c r="C44" s="2"/>
-      <c r="D44" s="2"/>
-      <c r="E44" s="2"/>
+      <c r="B44" s="4">
+        <v>11</v>
+      </c>
+      <c r="C44" s="2" t="s">
+        <v>210</v>
+      </c>
+      <c r="D44" s="2" t="s">
+        <v>211</v>
+      </c>
+      <c r="E44" s="2" t="s">
+        <v>212</v>
+      </c>
       <c r="F44" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="G44" s="2"/>
-    </row>
-    <row r="45" spans="1:7">
+        <v>213</v>
+      </c>
+      <c r="G44" s="2" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="45" spans="1:7" ht="60">
       <c r="A45" s="2">
         <v>43</v>
       </c>
-      <c r="B45" s="4"/>
-      <c r="C45" s="2"/>
-      <c r="D45" s="2"/>
-      <c r="E45" s="2"/>
+      <c r="B45" s="4">
+        <v>11</v>
+      </c>
+      <c r="C45" s="2" t="s">
+        <v>215</v>
+      </c>
+      <c r="D45" s="2" t="s">
+        <v>216</v>
+      </c>
+      <c r="E45" s="2" t="s">
+        <v>217</v>
+      </c>
       <c r="F45" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="G45" s="2"/>
-    </row>
-    <row r="46" spans="1:7">
+        <v>218</v>
+      </c>
+      <c r="G45" s="2" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="46" spans="1:7" ht="45">
       <c r="A46" s="2">
         <v>44</v>
       </c>
-      <c r="B46" s="4"/>
-      <c r="C46" s="2"/>
-      <c r="D46" s="2"/>
-      <c r="E46" s="2"/>
+      <c r="B46" s="4">
+        <v>11</v>
+      </c>
+      <c r="C46" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="D46" s="2" t="s">
+        <v>220</v>
+      </c>
+      <c r="E46" s="2" t="s">
+        <v>221</v>
+      </c>
       <c r="F46" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="G46" s="2"/>
-    </row>
-    <row r="47" spans="1:7">
+        <v>222</v>
+      </c>
+      <c r="G46" s="2" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="47" spans="1:7" ht="60">
       <c r="A47" s="2">
         <v>45</v>
       </c>
-      <c r="B47" s="4"/>
-      <c r="C47" s="2"/>
-      <c r="D47" s="2"/>
-      <c r="E47" s="2"/>
+      <c r="B47" s="4">
+        <v>12</v>
+      </c>
+      <c r="C47" s="2" t="s">
+        <v>224</v>
+      </c>
+      <c r="D47" s="2" t="s">
+        <v>225</v>
+      </c>
+      <c r="E47" s="2" t="s">
+        <v>226</v>
+      </c>
       <c r="F47" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="G47" s="2"/>
-    </row>
-    <row r="48" spans="1:7">
+        <v>227</v>
+      </c>
+      <c r="G47" s="2" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="48" spans="1:7" ht="60">
       <c r="A48" s="2">
         <v>46</v>
       </c>
-      <c r="B48" s="4"/>
-      <c r="C48" s="2"/>
-      <c r="D48" s="2"/>
-      <c r="E48" s="2"/>
+      <c r="B48" s="4">
+        <v>12</v>
+      </c>
+      <c r="C48" s="2" t="s">
+        <v>229</v>
+      </c>
+      <c r="D48" s="2" t="s">
+        <v>230</v>
+      </c>
+      <c r="E48" s="2" t="s">
+        <v>231</v>
+      </c>
       <c r="F48" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="G48" s="2"/>
-    </row>
-    <row r="49" spans="1:7">
+        <v>232</v>
+      </c>
+      <c r="G48" s="2" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="49" spans="1:7" ht="75">
       <c r="A49" s="2">
         <v>47</v>
       </c>
-      <c r="B49" s="4"/>
-      <c r="C49" s="2"/>
-      <c r="D49" s="2"/>
-      <c r="E49" s="2"/>
+      <c r="B49" s="4">
+        <v>12</v>
+      </c>
+      <c r="C49" s="2" t="s">
+        <v>234</v>
+      </c>
+      <c r="D49" s="2" t="s">
+        <v>235</v>
+      </c>
+      <c r="E49" s="2" t="s">
+        <v>236</v>
+      </c>
       <c r="F49" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="G49" s="2"/>
+        <v>237</v>
+      </c>
+      <c r="G49" s="2" t="s">
+        <v>238</v>
+      </c>
     </row>
     <row r="50" spans="1:7">
       <c r="A50" s="2">

--- a/BunpoN1.xlsx
+++ b/BunpoN1.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="295" uniqueCount="239">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="301" uniqueCount="246">
   <si>
     <t>番号</t>
   </si>
@@ -1070,6 +1070,30 @@
   </si>
   <si>
     <t>後には、話者の判断・主張・忠告など、現状を否定するようなニュアンスの文が来る。④のように普通形で「～わけではあるまいし・～のではあるまいし」の形で名詞以外にもつく。</t>
+  </si>
+  <si>
+    <t>～手前</t>
+  </si>
+  <si>
+    <t>～という立場・人物を意識するから、そうしないと評価が下がってしまう・面目が立たない。</t>
+  </si>
+  <si>
+    <t>【名】－の・【動】辞書形／た形／ている形　＋手前</t>
+  </si>
+  <si>
+    <t>①5月までに問題を解決すると約束した手前、どうしても頑張らなければならない。
+②いつも手伝ってもらっている手前、今回はこちらから手伝いを申し出なければ･･････。
+③子供たちの手前、父親がこんな酔っ払った姿で帰宅しては体裁が悪い。
+④ご近所の手前、家に警察官が来たことは知られたくない。</t>
+  </si>
+  <si>
+    <t>他人や社会の評価を考えると抵抗感があると言いたいときに使う。後には、話者の行動を精版することを表わす文（～わけにはいかない・～なければならない・ざるを得ないなど）が来る。</t>
+  </si>
+  <si>
+    <t>～ゆえ（に）</t>
+  </si>
+  <si>
+    <t>⇨～から（理由）</t>
   </si>
 </sst>
 </file>
@@ -1483,10 +1507,10 @@
   <dimension ref="A2:G102"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane xSplit="3" ySplit="2" topLeftCell="G46" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="3" ySplit="2" topLeftCell="E46" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="G49" sqref="G49"/>
+      <selection pane="bottomRight" activeCell="E50" sqref="E50"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.875" defaultRowHeight="15"/>
@@ -2568,26 +2592,42 @@
         <v>238</v>
       </c>
     </row>
-    <row r="50" spans="1:7">
+    <row r="50" spans="1:7" ht="90">
       <c r="A50" s="2">
         <v>48</v>
       </c>
-      <c r="B50" s="4"/>
-      <c r="C50" s="2"/>
-      <c r="D50" s="2"/>
-      <c r="E50" s="2"/>
+      <c r="B50" s="4">
+        <v>12</v>
+      </c>
+      <c r="C50" s="2" t="s">
+        <v>239</v>
+      </c>
+      <c r="D50" s="2" t="s">
+        <v>240</v>
+      </c>
+      <c r="E50" s="2" t="s">
+        <v>241</v>
+      </c>
       <c r="F50" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="G50" s="2"/>
+        <v>242</v>
+      </c>
+      <c r="G50" s="2" t="s">
+        <v>243</v>
+      </c>
     </row>
     <row r="51" spans="1:7">
       <c r="A51" s="2">
         <v>49</v>
       </c>
-      <c r="B51" s="4"/>
-      <c r="C51" s="2"/>
-      <c r="D51" s="2"/>
+      <c r="B51" s="4">
+        <v>12</v>
+      </c>
+      <c r="C51" s="2" t="s">
+        <v>244</v>
+      </c>
+      <c r="D51" s="2" t="s">
+        <v>245</v>
+      </c>
       <c r="E51" s="2"/>
       <c r="F51" s="3" t="s">
         <v>8</v>
